--- a/Repository/BusinessObjects/CustomerPreferencesManagement/requirement/Customer Preference Management Service (CFMS) - v1.0.1.xlsx
+++ b/Repository/BusinessObjects/CustomerPreferencesManagement/requirement/Customer Preference Management Service (CFMS) - v1.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Workshop\Repository\BusinessObjects\CustomerPreferencesManagement\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063BA67A-7795-401E-A190-156EABA7EF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB192AB-CB77-4220-B834-21195FA31C3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27975" yWindow="2265" windowWidth="21600" windowHeight="11325" tabRatio="821" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" tabRatio="821" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
@@ -4461,25 +4461,13 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4516,6 +4504,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6255,61 +6255,61 @@
       <c r="A1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="106" t="s">
+      <c r="B5" s="101"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="107"/>
+      <c r="E5" s="103"/>
     </row>
     <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="96"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="52" t="s">
         <v>119</v>
       </c>
@@ -6318,11 +6318,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="96"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="53" t="s">
         <v>19</v>
       </c>
@@ -6331,9 +6331,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="96"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="53" t="s">
         <v>21</v>
       </c>
@@ -6342,9 +6342,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="96"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="53" t="s">
         <v>22</v>
       </c>
@@ -6353,9 +6353,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="96"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="109"/>
       <c r="D10" s="53" t="s">
         <v>23</v>
       </c>
@@ -6364,9 +6364,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="96"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="109"/>
       <c r="D11" s="53" t="s">
         <v>24</v>
       </c>
@@ -6375,9 +6375,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="96"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="109"/>
       <c r="D12" s="53" t="s">
         <v>25</v>
       </c>
@@ -6386,9 +6386,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="96"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="109"/>
       <c r="D13" s="53" t="s">
         <v>26</v>
       </c>
@@ -6397,9 +6397,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="96"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="109"/>
       <c r="D14" s="53" t="s">
         <v>27</v>
       </c>
@@ -6408,9 +6408,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="96"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="109"/>
       <c r="D15" s="53" t="s">
         <v>28</v>
       </c>
@@ -6419,9 +6419,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="109"/>
       <c r="D16" s="53" t="s">
         <v>29</v>
       </c>
@@ -6430,9 +6430,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="96"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="109"/>
       <c r="D17" s="53" t="s">
         <v>30</v>
       </c>
@@ -6441,9 +6441,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="96"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="53" t="s">
         <v>31</v>
       </c>
@@ -6452,9 +6452,9 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="96"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="53" t="s">
         <v>32</v>
       </c>
@@ -6463,9 +6463,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="96"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="53" t="s">
         <v>33</v>
       </c>
@@ -6474,9 +6474,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="96"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="75" t="s">
         <v>34</v>
       </c>
@@ -6485,9 +6485,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="96"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="109"/>
       <c r="D22" s="53" t="s">
         <v>35</v>
       </c>
@@ -6496,9 +6496,9 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="96"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="109"/>
       <c r="D23" s="53" t="s">
         <v>36</v>
       </c>
@@ -6507,9 +6507,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="96"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="109"/>
       <c r="D24" s="53" t="s">
         <v>37</v>
       </c>
@@ -6518,9 +6518,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="96"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="109"/>
       <c r="D25" s="53" t="s">
         <v>38</v>
       </c>
@@ -6529,9 +6529,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="96"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="109"/>
       <c r="D26" s="53" t="s">
         <v>40</v>
       </c>
@@ -6540,9 +6540,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="96"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="53" t="s">
         <v>41</v>
       </c>
@@ -6551,9 +6551,9 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="53" t="s">
         <v>42</v>
       </c>
@@ -6562,9 +6562,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="96"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="109"/>
       <c r="D29" s="53" t="s">
         <v>43</v>
       </c>
@@ -6573,9 +6573,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="96"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="109"/>
       <c r="D30" s="53" t="s">
         <v>44</v>
       </c>
@@ -6584,9 +6584,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="96"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="109"/>
       <c r="D31" s="53" t="s">
         <v>45</v>
       </c>
@@ -6595,9 +6595,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="96"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="53" t="s">
         <v>46</v>
       </c>
@@ -6606,9 +6606,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="96"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="53" t="s">
         <v>47</v>
       </c>
@@ -6617,9 +6617,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="96"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="53" t="s">
         <v>48</v>
       </c>
@@ -6628,9 +6628,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="96"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="109"/>
       <c r="D35" s="53" t="s">
         <v>49</v>
       </c>
@@ -6639,18 +6639,18 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="91" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="92"/>
+      <c r="E36" s="93"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="96"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="109"/>
       <c r="D37" s="53" t="s">
         <v>19</v>
       </c>
@@ -6659,9 +6659,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="96"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="109"/>
       <c r="D38" s="53" t="s">
         <v>21</v>
       </c>
@@ -6670,9 +6670,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="96"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="53" t="s">
         <v>22</v>
       </c>
@@ -6681,9 +6681,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="96"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="53" t="s">
         <v>23</v>
       </c>
@@ -6692,9 +6692,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="96"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="53" t="s">
         <v>24</v>
       </c>
@@ -6703,9 +6703,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="96"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="109"/>
       <c r="D42" s="53" t="s">
         <v>25</v>
       </c>
@@ -6714,9 +6714,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="96"/>
+      <c r="A43" s="107"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="109"/>
       <c r="D43" s="53" t="s">
         <v>26</v>
       </c>
@@ -6725,9 +6725,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="96"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="109"/>
       <c r="D44" s="53" t="s">
         <v>27</v>
       </c>
@@ -6736,9 +6736,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="96"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="109"/>
       <c r="D45" s="53" t="s">
         <v>28</v>
       </c>
@@ -6747,9 +6747,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="96"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="109"/>
       <c r="D46" s="53" t="s">
         <v>29</v>
       </c>
@@ -6758,9 +6758,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="96"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="109"/>
       <c r="D47" s="53" t="s">
         <v>30</v>
       </c>
@@ -6769,9 +6769,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="96"/>
+      <c r="A48" s="107"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="109"/>
       <c r="D48" s="53" t="s">
         <v>31</v>
       </c>
@@ -6780,9 +6780,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="96"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="109"/>
       <c r="D49" s="53" t="s">
         <v>32</v>
       </c>
@@ -6791,9 +6791,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="96"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="109"/>
       <c r="D50" s="53" t="s">
         <v>33</v>
       </c>
@@ -6802,9 +6802,9 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="96"/>
+      <c r="A51" s="107"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="109"/>
       <c r="D51" s="53" t="s">
         <v>34</v>
       </c>
@@ -6813,9 +6813,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="96"/>
+      <c r="A52" s="107"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="109"/>
       <c r="D52" s="53" t="s">
         <v>35</v>
       </c>
@@ -6824,9 +6824,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="96"/>
+      <c r="A53" s="107"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="109"/>
       <c r="D53" s="53" t="s">
         <v>36</v>
       </c>
@@ -6835,9 +6835,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="96"/>
+      <c r="A54" s="107"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="109"/>
       <c r="D54" s="53" t="s">
         <v>37</v>
       </c>
@@ -6846,9 +6846,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="96"/>
+      <c r="A55" s="107"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="109"/>
       <c r="D55" s="53" t="s">
         <v>38</v>
       </c>
@@ -6857,9 +6857,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="96"/>
+      <c r="A56" s="107"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="109"/>
       <c r="D56" s="53" t="s">
         <v>40</v>
       </c>
@@ -6868,9 +6868,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="96"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="109"/>
       <c r="D57" s="53" t="s">
         <v>41</v>
       </c>
@@ -6879,9 +6879,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="96"/>
+      <c r="A58" s="107"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="109"/>
       <c r="D58" s="53" t="s">
         <v>42</v>
       </c>
@@ -6890,9 +6890,9 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="96"/>
+      <c r="A59" s="107"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="53" t="s">
         <v>43</v>
       </c>
@@ -6901,9 +6901,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="96"/>
+      <c r="A60" s="107"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="53" t="s">
         <v>44</v>
       </c>
@@ -6912,9 +6912,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="96"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="53" t="s">
         <v>45</v>
       </c>
@@ -6923,9 +6923,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="96"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="53" t="s">
         <v>46</v>
       </c>
@@ -6934,9 +6934,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="96"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="53" t="s">
         <v>47</v>
       </c>
@@ -6945,9 +6945,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="96"/>
+      <c r="A64" s="107"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="53" t="s">
         <v>50</v>
       </c>
@@ -6956,9 +6956,9 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="96"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="53" t="s">
         <v>51</v>
       </c>
@@ -6967,9 +6967,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="94"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="96"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="109"/>
       <c r="D66" s="53" t="s">
         <v>52</v>
       </c>
@@ -6978,9 +6978,9 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="96"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="109"/>
       <c r="D67" s="53" t="s">
         <v>53</v>
       </c>
@@ -6989,9 +6989,9 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="96"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="53" t="s">
         <v>54</v>
       </c>
@@ -7000,9 +7000,9 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="96"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="53" t="s">
         <v>55</v>
       </c>
@@ -7011,9 +7011,9 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="96"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="53" t="s">
         <v>56</v>
       </c>
@@ -7022,9 +7022,9 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="96"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="53" t="s">
         <v>57</v>
       </c>
@@ -7033,9 +7033,9 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="96"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="53" t="s">
         <v>58</v>
       </c>
@@ -7044,9 +7044,9 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="96"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="53" t="s">
         <v>59</v>
       </c>
@@ -7055,9 +7055,9 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="96"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="53" t="s">
         <v>60</v>
       </c>
@@ -7066,9 +7066,9 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="96"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="53" t="s">
         <v>61</v>
       </c>
@@ -7077,9 +7077,9 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="94"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="96"/>
+      <c r="A76" s="107"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="53" t="s">
         <v>62</v>
       </c>
@@ -7088,9 +7088,9 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="96"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="109"/>
       <c r="D77" s="53" t="s">
         <v>63</v>
       </c>
@@ -7099,18 +7099,18 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="91" t="s">
+      <c r="A78" s="107"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="92" t="s">
         <v>151</v>
       </c>
-      <c r="E78" s="92"/>
+      <c r="E78" s="93"/>
     </row>
     <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="96"/>
+      <c r="A79" s="107"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="109"/>
       <c r="D79" s="53" t="s">
         <v>19</v>
       </c>
@@ -7119,9 +7119,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="96"/>
+      <c r="A80" s="107"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="109"/>
       <c r="D80" s="53" t="s">
         <v>21</v>
       </c>
@@ -7130,9 +7130,9 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="96"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="109"/>
       <c r="D81" s="53" t="s">
         <v>22</v>
       </c>
@@ -7141,9 +7141,9 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="96"/>
+      <c r="A82" s="107"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="109"/>
       <c r="D82" s="53" t="s">
         <v>23</v>
       </c>
@@ -7152,9 +7152,9 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="96"/>
+      <c r="A83" s="107"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="109"/>
       <c r="D83" s="53" t="s">
         <v>24</v>
       </c>
@@ -7163,9 +7163,9 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="94"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="96"/>
+      <c r="A84" s="107"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="109"/>
       <c r="D84" s="53" t="s">
         <v>25</v>
       </c>
@@ -7174,9 +7174,9 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="94"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="96"/>
+      <c r="A85" s="107"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="109"/>
       <c r="D85" s="53" t="s">
         <v>26</v>
       </c>
@@ -7185,9 +7185,9 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="96"/>
+      <c r="A86" s="107"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="109"/>
       <c r="D86" s="53" t="s">
         <v>27</v>
       </c>
@@ -7196,9 +7196,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="94"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="96"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="109"/>
       <c r="D87" s="53" t="s">
         <v>28</v>
       </c>
@@ -7207,9 +7207,9 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="94"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="96"/>
+      <c r="A88" s="107"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="109"/>
       <c r="D88" s="53" t="s">
         <v>29</v>
       </c>
@@ -7218,9 +7218,9 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="94"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="96"/>
+      <c r="A89" s="107"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="109"/>
       <c r="D89" s="53" t="s">
         <v>30</v>
       </c>
@@ -7229,9 +7229,9 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="94"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="96"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="107"/>
+      <c r="C90" s="109"/>
       <c r="D90" s="53" t="s">
         <v>31</v>
       </c>
@@ -7240,9 +7240,9 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="94"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="96"/>
+      <c r="A91" s="107"/>
+      <c r="B91" s="107"/>
+      <c r="C91" s="109"/>
       <c r="D91" s="53" t="s">
         <v>32</v>
       </c>
@@ -7251,9 +7251,9 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="94"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="96"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="109"/>
       <c r="D92" s="53" t="s">
         <v>33</v>
       </c>
@@ -7262,9 +7262,9 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="94"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="96"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="109"/>
       <c r="D93" s="53" t="s">
         <v>34</v>
       </c>
@@ -7273,9 +7273,9 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="94"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="96"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="109"/>
       <c r="D94" s="53" t="s">
         <v>35</v>
       </c>
@@ -7284,9 +7284,9 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="94"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="96"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="109"/>
       <c r="D95" s="53" t="s">
         <v>36</v>
       </c>
@@ -7295,9 +7295,9 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="94"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="96"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="109"/>
       <c r="D96" s="53" t="s">
         <v>37</v>
       </c>
@@ -7306,9 +7306,9 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="94"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="96"/>
+      <c r="A97" s="107"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="109"/>
       <c r="D97" s="53" t="s">
         <v>38</v>
       </c>
@@ -7317,9 +7317,9 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="94"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="96"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="109"/>
       <c r="D98" s="53" t="s">
         <v>40</v>
       </c>
@@ -7328,9 +7328,9 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="94"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="109"/>
       <c r="D99" s="53" t="s">
         <v>41</v>
       </c>
@@ -7339,9 +7339,9 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="94"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="96"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="109"/>
       <c r="D100" s="53" t="s">
         <v>42</v>
       </c>
@@ -7350,9 +7350,9 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="94"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="96"/>
+      <c r="A101" s="107"/>
+      <c r="B101" s="107"/>
+      <c r="C101" s="109"/>
       <c r="D101" s="53" t="s">
         <v>43</v>
       </c>
@@ -7361,9 +7361,9 @@
       </c>
     </row>
     <row r="102" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="94"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="96"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="109"/>
       <c r="D102" s="53" t="s">
         <v>44</v>
       </c>
@@ -7372,9 +7372,9 @@
       </c>
     </row>
     <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="94"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="96"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="109"/>
       <c r="D103" s="53" t="s">
         <v>45</v>
       </c>
@@ -7383,9 +7383,9 @@
       </c>
     </row>
     <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="94"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="96"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="109"/>
       <c r="D104" s="53" t="s">
         <v>46</v>
       </c>
@@ -7394,9 +7394,9 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="94"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="96"/>
+      <c r="A105" s="107"/>
+      <c r="B105" s="107"/>
+      <c r="C105" s="109"/>
       <c r="D105" s="53" t="s">
         <v>47</v>
       </c>
@@ -7405,9 +7405,9 @@
       </c>
     </row>
     <row r="106" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="94"/>
-      <c r="B106" s="94"/>
-      <c r="C106" s="96"/>
+      <c r="A106" s="107"/>
+      <c r="B106" s="107"/>
+      <c r="C106" s="109"/>
       <c r="D106" s="53" t="s">
         <v>50</v>
       </c>
@@ -7416,9 +7416,9 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="94"/>
-      <c r="B107" s="94"/>
-      <c r="C107" s="96"/>
+      <c r="A107" s="107"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="109"/>
       <c r="D107" s="53" t="s">
         <v>51</v>
       </c>
@@ -7427,9 +7427,9 @@
       </c>
     </row>
     <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="94"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="96"/>
+      <c r="A108" s="107"/>
+      <c r="B108" s="107"/>
+      <c r="C108" s="109"/>
       <c r="D108" s="53" t="s">
         <v>52</v>
       </c>
@@ -7438,9 +7438,9 @@
       </c>
     </row>
     <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="94"/>
-      <c r="B109" s="94"/>
-      <c r="C109" s="96"/>
+      <c r="A109" s="107"/>
+      <c r="B109" s="107"/>
+      <c r="C109" s="109"/>
       <c r="D109" s="53" t="s">
         <v>53</v>
       </c>
@@ -7449,9 +7449,9 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="94"/>
-      <c r="B110" s="94"/>
-      <c r="C110" s="96"/>
+      <c r="A110" s="107"/>
+      <c r="B110" s="107"/>
+      <c r="C110" s="109"/>
       <c r="D110" s="53" t="s">
         <v>54</v>
       </c>
@@ -7460,9 +7460,9 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="94"/>
-      <c r="B111" s="94"/>
-      <c r="C111" s="96"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="109"/>
       <c r="D111" s="53" t="s">
         <v>55</v>
       </c>
@@ -7471,9 +7471,9 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="94"/>
-      <c r="B112" s="94"/>
-      <c r="C112" s="96"/>
+      <c r="A112" s="107"/>
+      <c r="B112" s="107"/>
+      <c r="C112" s="109"/>
       <c r="D112" s="53" t="s">
         <v>56</v>
       </c>
@@ -7482,9 +7482,9 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="94"/>
-      <c r="B113" s="94"/>
-      <c r="C113" s="96"/>
+      <c r="A113" s="107"/>
+      <c r="B113" s="107"/>
+      <c r="C113" s="109"/>
       <c r="D113" s="53" t="s">
         <v>57</v>
       </c>
@@ -7493,9 +7493,9 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="94"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="96"/>
+      <c r="A114" s="107"/>
+      <c r="B114" s="107"/>
+      <c r="C114" s="109"/>
       <c r="D114" s="53" t="s">
         <v>58</v>
       </c>
@@ -7504,9 +7504,9 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="94"/>
-      <c r="B115" s="94"/>
-      <c r="C115" s="96"/>
+      <c r="A115" s="107"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="109"/>
       <c r="D115" s="53" t="s">
         <v>64</v>
       </c>
@@ -7515,9 +7515,9 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="94"/>
-      <c r="B116" s="94"/>
-      <c r="C116" s="96"/>
+      <c r="A116" s="107"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="109"/>
       <c r="D116" s="53" t="s">
         <v>65</v>
       </c>
@@ -7526,9 +7526,9 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="94"/>
-      <c r="B117" s="94"/>
-      <c r="C117" s="96"/>
+      <c r="A117" s="107"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="109"/>
       <c r="D117" s="32" t="s">
         <v>66</v>
       </c>
@@ -7537,9 +7537,9 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="94"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="96"/>
+      <c r="A118" s="107"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="109"/>
       <c r="D118" s="53" t="s">
         <v>59</v>
       </c>
@@ -7548,9 +7548,9 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="94"/>
-      <c r="B119" s="94"/>
-      <c r="C119" s="96"/>
+      <c r="A119" s="107"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="109"/>
       <c r="D119" s="53" t="s">
         <v>60</v>
       </c>
@@ -7559,9 +7559,9 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="94"/>
-      <c r="B120" s="94"/>
-      <c r="C120" s="96"/>
+      <c r="A120" s="107"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="109"/>
       <c r="D120" s="53" t="s">
         <v>61</v>
       </c>
@@ -7570,9 +7570,9 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="94"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="96"/>
+      <c r="A121" s="107"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="109"/>
       <c r="D121" s="53" t="s">
         <v>62</v>
       </c>
@@ -7581,9 +7581,9 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="94"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="96"/>
+      <c r="A122" s="107"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="109"/>
       <c r="D122" s="53" t="s">
         <v>67</v>
       </c>
@@ -7592,9 +7592,9 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="94"/>
-      <c r="B123" s="94"/>
-      <c r="C123" s="96"/>
+      <c r="A123" s="107"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="109"/>
       <c r="D123" s="53" t="s">
         <v>68</v>
       </c>
@@ -7603,9 +7603,9 @@
       </c>
     </row>
     <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="94"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="96"/>
+      <c r="A124" s="107"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="109"/>
       <c r="D124" s="53" t="s">
         <v>69</v>
       </c>
@@ -7614,9 +7614,9 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="94"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="96"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="109"/>
       <c r="D125" s="53" t="s">
         <v>70</v>
       </c>
@@ -7625,9 +7625,9 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="94"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="96"/>
+      <c r="A126" s="107"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="109"/>
       <c r="D126" s="53" t="s">
         <v>71</v>
       </c>
@@ -7636,9 +7636,9 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="94"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="96"/>
+      <c r="A127" s="107"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="109"/>
       <c r="D127" s="53" t="s">
         <v>72</v>
       </c>
@@ -7647,9 +7647,9 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="94"/>
-      <c r="B128" s="94"/>
-      <c r="C128" s="96"/>
+      <c r="A128" s="107"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="109"/>
       <c r="D128" s="53" t="s">
         <v>48</v>
       </c>
@@ -7658,9 +7658,9 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="94"/>
-      <c r="B129" s="94"/>
-      <c r="C129" s="96"/>
+      <c r="A129" s="107"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="109"/>
       <c r="D129" s="53" t="s">
         <v>73</v>
       </c>
@@ -7669,9 +7669,9 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="94"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="96"/>
+      <c r="A130" s="107"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="109"/>
       <c r="D130" s="53" t="s">
         <v>74</v>
       </c>
@@ -7680,18 +7680,18 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A131" s="94"/>
-      <c r="B131" s="94"/>
-      <c r="C131" s="96"/>
-      <c r="D131" s="91" t="s">
+      <c r="A131" s="107"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="109"/>
+      <c r="D131" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E131" s="92"/>
+      <c r="E131" s="93"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="94"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="96"/>
+      <c r="A132" s="107"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="109"/>
       <c r="D132" s="53" t="s">
         <v>19</v>
       </c>
@@ -7700,9 +7700,9 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="94"/>
-      <c r="B133" s="94"/>
-      <c r="C133" s="96"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="109"/>
       <c r="D133" s="53" t="s">
         <v>21</v>
       </c>
@@ -7711,9 +7711,9 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="94"/>
-      <c r="B134" s="94"/>
-      <c r="C134" s="96"/>
+      <c r="A134" s="107"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="109"/>
       <c r="D134" s="53" t="s">
         <v>22</v>
       </c>
@@ -7722,9 +7722,9 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="94"/>
-      <c r="B135" s="94"/>
-      <c r="C135" s="96"/>
+      <c r="A135" s="107"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="109"/>
       <c r="D135" s="53" t="s">
         <v>23</v>
       </c>
@@ -7733,9 +7733,9 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="94"/>
-      <c r="B136" s="94"/>
-      <c r="C136" s="96"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="109"/>
       <c r="D136" s="53" t="s">
         <v>24</v>
       </c>
@@ -7744,9 +7744,9 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="94"/>
-      <c r="B137" s="94"/>
-      <c r="C137" s="96"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="109"/>
       <c r="D137" s="53" t="s">
         <v>25</v>
       </c>
@@ -7755,9 +7755,9 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="94"/>
-      <c r="B138" s="94"/>
-      <c r="C138" s="96"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="109"/>
       <c r="D138" s="53" t="s">
         <v>26</v>
       </c>
@@ -7766,9 +7766,9 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="94"/>
-      <c r="B139" s="94"/>
-      <c r="C139" s="96"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="109"/>
       <c r="D139" s="53" t="s">
         <v>27</v>
       </c>
@@ -7777,9 +7777,9 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="94"/>
-      <c r="B140" s="94"/>
-      <c r="C140" s="96"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="107"/>
+      <c r="C140" s="109"/>
       <c r="D140" s="53" t="s">
         <v>28</v>
       </c>
@@ -7788,9 +7788,9 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="94"/>
-      <c r="B141" s="94"/>
-      <c r="C141" s="96"/>
+      <c r="A141" s="107"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="109"/>
       <c r="D141" s="53" t="s">
         <v>29</v>
       </c>
@@ -7799,9 +7799,9 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="94"/>
-      <c r="B142" s="94"/>
-      <c r="C142" s="96"/>
+      <c r="A142" s="107"/>
+      <c r="B142" s="107"/>
+      <c r="C142" s="109"/>
       <c r="D142" s="53" t="s">
         <v>30</v>
       </c>
@@ -7810,9 +7810,9 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="94"/>
-      <c r="B143" s="94"/>
-      <c r="C143" s="96"/>
+      <c r="A143" s="107"/>
+      <c r="B143" s="107"/>
+      <c r="C143" s="109"/>
       <c r="D143" s="53" t="s">
         <v>31</v>
       </c>
@@ -7821,9 +7821,9 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="94"/>
-      <c r="B144" s="94"/>
-      <c r="C144" s="96"/>
+      <c r="A144" s="107"/>
+      <c r="B144" s="107"/>
+      <c r="C144" s="109"/>
       <c r="D144" s="53" t="s">
         <v>32</v>
       </c>
@@ -7832,9 +7832,9 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="94"/>
-      <c r="B145" s="94"/>
-      <c r="C145" s="96"/>
+      <c r="A145" s="107"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="109"/>
       <c r="D145" s="53" t="s">
         <v>33</v>
       </c>
@@ -7843,9 +7843,9 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="94"/>
-      <c r="B146" s="94"/>
-      <c r="C146" s="96"/>
+      <c r="A146" s="107"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="109"/>
       <c r="D146" s="53" t="s">
         <v>34</v>
       </c>
@@ -7854,9 +7854,9 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="94"/>
-      <c r="B147" s="94"/>
-      <c r="C147" s="96"/>
+      <c r="A147" s="107"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="109"/>
       <c r="D147" s="53" t="s">
         <v>35</v>
       </c>
@@ -7865,9 +7865,9 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="94"/>
-      <c r="B148" s="94"/>
-      <c r="C148" s="96"/>
+      <c r="A148" s="107"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="109"/>
       <c r="D148" s="53" t="s">
         <v>36</v>
       </c>
@@ -7876,9 +7876,9 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="94"/>
-      <c r="B149" s="94"/>
-      <c r="C149" s="96"/>
+      <c r="A149" s="107"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="109"/>
       <c r="D149" s="53" t="s">
         <v>37</v>
       </c>
@@ -7887,9 +7887,9 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="94"/>
-      <c r="B150" s="94"/>
-      <c r="C150" s="96"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="107"/>
+      <c r="C150" s="109"/>
       <c r="D150" s="53" t="s">
         <v>38</v>
       </c>
@@ -7898,9 +7898,9 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="94"/>
-      <c r="B151" s="94"/>
-      <c r="C151" s="96"/>
+      <c r="A151" s="107"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="109"/>
       <c r="D151" s="53" t="s">
         <v>40</v>
       </c>
@@ -7909,9 +7909,9 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="94"/>
-      <c r="B152" s="94"/>
-      <c r="C152" s="96"/>
+      <c r="A152" s="107"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="109"/>
       <c r="D152" s="53" t="s">
         <v>41</v>
       </c>
@@ -7920,9 +7920,9 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="94"/>
-      <c r="B153" s="94"/>
-      <c r="C153" s="96"/>
+      <c r="A153" s="107"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="109"/>
       <c r="D153" s="53" t="s">
         <v>42</v>
       </c>
@@ -7931,9 +7931,9 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="94"/>
-      <c r="B154" s="94"/>
-      <c r="C154" s="96"/>
+      <c r="A154" s="107"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="109"/>
       <c r="D154" s="53" t="s">
         <v>43</v>
       </c>
@@ -7942,9 +7942,9 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="94"/>
-      <c r="B155" s="94"/>
-      <c r="C155" s="96"/>
+      <c r="A155" s="107"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="109"/>
       <c r="D155" s="53" t="s">
         <v>44</v>
       </c>
@@ -7953,9 +7953,9 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="94"/>
-      <c r="B156" s="94"/>
-      <c r="C156" s="96"/>
+      <c r="A156" s="107"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="109"/>
       <c r="D156" s="53" t="s">
         <v>45</v>
       </c>
@@ -7964,9 +7964,9 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="94"/>
-      <c r="B157" s="94"/>
-      <c r="C157" s="96"/>
+      <c r="A157" s="107"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="109"/>
       <c r="D157" s="53" t="s">
         <v>46</v>
       </c>
@@ -7975,9 +7975,9 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="94"/>
-      <c r="B158" s="94"/>
-      <c r="C158" s="96"/>
+      <c r="A158" s="107"/>
+      <c r="B158" s="107"/>
+      <c r="C158" s="109"/>
       <c r="D158" s="53" t="s">
         <v>47</v>
       </c>
@@ -7986,9 +7986,9 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="94"/>
-      <c r="B159" s="94"/>
-      <c r="C159" s="96"/>
+      <c r="A159" s="107"/>
+      <c r="B159" s="107"/>
+      <c r="C159" s="109"/>
       <c r="D159" s="53" t="s">
         <v>50</v>
       </c>
@@ -7997,9 +7997,9 @@
       </c>
     </row>
     <row r="160" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="94"/>
-      <c r="B160" s="94"/>
-      <c r="C160" s="96"/>
+      <c r="A160" s="107"/>
+      <c r="B160" s="107"/>
+      <c r="C160" s="109"/>
       <c r="D160" s="53" t="s">
         <v>51</v>
       </c>
@@ -8008,9 +8008,9 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="94"/>
-      <c r="B161" s="94"/>
-      <c r="C161" s="96"/>
+      <c r="A161" s="107"/>
+      <c r="B161" s="107"/>
+      <c r="C161" s="109"/>
       <c r="D161" s="53" t="s">
         <v>52</v>
       </c>
@@ -8019,9 +8019,9 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="94"/>
-      <c r="B162" s="94"/>
-      <c r="C162" s="96"/>
+      <c r="A162" s="107"/>
+      <c r="B162" s="107"/>
+      <c r="C162" s="109"/>
       <c r="D162" s="53" t="s">
         <v>53</v>
       </c>
@@ -8030,9 +8030,9 @@
       </c>
     </row>
     <row r="163" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="94"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="96"/>
+      <c r="A163" s="107"/>
+      <c r="B163" s="107"/>
+      <c r="C163" s="109"/>
       <c r="D163" s="53" t="s">
         <v>54</v>
       </c>
@@ -8041,9 +8041,9 @@
       </c>
     </row>
     <row r="164" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="94"/>
-      <c r="B164" s="94"/>
-      <c r="C164" s="96"/>
+      <c r="A164" s="107"/>
+      <c r="B164" s="107"/>
+      <c r="C164" s="109"/>
       <c r="D164" s="53" t="s">
         <v>55</v>
       </c>
@@ -8052,9 +8052,9 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="94"/>
-      <c r="B165" s="94"/>
-      <c r="C165" s="96"/>
+      <c r="A165" s="107"/>
+      <c r="B165" s="107"/>
+      <c r="C165" s="109"/>
       <c r="D165" s="53" t="s">
         <v>56</v>
       </c>
@@ -8063,9 +8063,9 @@
       </c>
     </row>
     <row r="166" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="94"/>
-      <c r="B166" s="94"/>
-      <c r="C166" s="96"/>
+      <c r="A166" s="107"/>
+      <c r="B166" s="107"/>
+      <c r="C166" s="109"/>
       <c r="D166" s="53" t="s">
         <v>57</v>
       </c>
@@ -8074,9 +8074,9 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="94"/>
-      <c r="B167" s="94"/>
-      <c r="C167" s="96"/>
+      <c r="A167" s="107"/>
+      <c r="B167" s="107"/>
+      <c r="C167" s="109"/>
       <c r="D167" s="53" t="s">
         <v>58</v>
       </c>
@@ -8085,9 +8085,9 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="94"/>
-      <c r="B168" s="94"/>
-      <c r="C168" s="96"/>
+      <c r="A168" s="107"/>
+      <c r="B168" s="107"/>
+      <c r="C168" s="109"/>
       <c r="D168" s="53" t="s">
         <v>64</v>
       </c>
@@ -8096,9 +8096,9 @@
       </c>
     </row>
     <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="94"/>
-      <c r="B169" s="94"/>
-      <c r="C169" s="96"/>
+      <c r="A169" s="107"/>
+      <c r="B169" s="107"/>
+      <c r="C169" s="109"/>
       <c r="D169" s="53" t="s">
         <v>65</v>
       </c>
@@ -8107,9 +8107,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="94"/>
-      <c r="B170" s="94"/>
-      <c r="C170" s="96"/>
+      <c r="A170" s="107"/>
+      <c r="B170" s="107"/>
+      <c r="C170" s="109"/>
       <c r="D170" s="32" t="s">
         <v>66</v>
       </c>
@@ -8118,9 +8118,9 @@
       </c>
     </row>
     <row r="171" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="94"/>
-      <c r="B171" s="94"/>
-      <c r="C171" s="96"/>
+      <c r="A171" s="107"/>
+      <c r="B171" s="107"/>
+      <c r="C171" s="109"/>
       <c r="D171" s="53" t="s">
         <v>59</v>
       </c>
@@ -8129,9 +8129,9 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="94"/>
-      <c r="B172" s="94"/>
-      <c r="C172" s="96"/>
+      <c r="A172" s="107"/>
+      <c r="B172" s="107"/>
+      <c r="C172" s="109"/>
       <c r="D172" s="53" t="s">
         <v>60</v>
       </c>
@@ -8140,9 +8140,9 @@
       </c>
     </row>
     <row r="173" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="94"/>
-      <c r="B173" s="94"/>
-      <c r="C173" s="96"/>
+      <c r="A173" s="107"/>
+      <c r="B173" s="107"/>
+      <c r="C173" s="109"/>
       <c r="D173" s="53" t="s">
         <v>61</v>
       </c>
@@ -8151,9 +8151,9 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="94"/>
-      <c r="B174" s="94"/>
-      <c r="C174" s="96"/>
+      <c r="A174" s="107"/>
+      <c r="B174" s="107"/>
+      <c r="C174" s="109"/>
       <c r="D174" s="53" t="s">
         <v>62</v>
       </c>
@@ -8162,9 +8162,9 @@
       </c>
     </row>
     <row r="175" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="94"/>
-      <c r="B175" s="94"/>
-      <c r="C175" s="96"/>
+      <c r="A175" s="107"/>
+      <c r="B175" s="107"/>
+      <c r="C175" s="109"/>
       <c r="D175" s="53" t="s">
         <v>67</v>
       </c>
@@ -8173,9 +8173,9 @@
       </c>
     </row>
     <row r="176" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="94"/>
-      <c r="B176" s="94"/>
-      <c r="C176" s="96"/>
+      <c r="A176" s="107"/>
+      <c r="B176" s="107"/>
+      <c r="C176" s="109"/>
       <c r="D176" s="53" t="s">
         <v>68</v>
       </c>
@@ -8184,9 +8184,9 @@
       </c>
     </row>
     <row r="177" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="94"/>
-      <c r="B177" s="94"/>
-      <c r="C177" s="96"/>
+      <c r="A177" s="107"/>
+      <c r="B177" s="107"/>
+      <c r="C177" s="109"/>
       <c r="D177" s="53" t="s">
         <v>69</v>
       </c>
@@ -8195,9 +8195,9 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="94"/>
-      <c r="B178" s="94"/>
-      <c r="C178" s="96"/>
+      <c r="A178" s="107"/>
+      <c r="B178" s="107"/>
+      <c r="C178" s="109"/>
       <c r="D178" s="53" t="s">
         <v>70</v>
       </c>
@@ -8206,9 +8206,9 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="94"/>
-      <c r="B179" s="94"/>
-      <c r="C179" s="96"/>
+      <c r="A179" s="107"/>
+      <c r="B179" s="107"/>
+      <c r="C179" s="109"/>
       <c r="D179" s="53" t="s">
         <v>71</v>
       </c>
@@ -8217,9 +8217,9 @@
       </c>
     </row>
     <row r="180" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="94"/>
-      <c r="B180" s="94"/>
-      <c r="C180" s="96"/>
+      <c r="A180" s="107"/>
+      <c r="B180" s="107"/>
+      <c r="C180" s="109"/>
       <c r="D180" s="53" t="s">
         <v>72</v>
       </c>
@@ -8228,9 +8228,9 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="94"/>
-      <c r="B181" s="94"/>
-      <c r="C181" s="96"/>
+      <c r="A181" s="107"/>
+      <c r="B181" s="107"/>
+      <c r="C181" s="109"/>
       <c r="D181" s="53" t="s">
         <v>48</v>
       </c>
@@ -8239,9 +8239,9 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="94"/>
-      <c r="B182" s="94"/>
-      <c r="C182" s="96"/>
+      <c r="A182" s="107"/>
+      <c r="B182" s="107"/>
+      <c r="C182" s="109"/>
       <c r="D182" s="53" t="s">
         <v>73</v>
       </c>
@@ -8250,9 +8250,9 @@
       </c>
     </row>
     <row r="183" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="94"/>
-      <c r="B183" s="94"/>
-      <c r="C183" s="96"/>
+      <c r="A183" s="107"/>
+      <c r="B183" s="107"/>
+      <c r="C183" s="109"/>
       <c r="D183" s="53" t="s">
         <v>74</v>
       </c>
@@ -8261,18 +8261,18 @@
       </c>
     </row>
     <row r="184" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A184" s="94"/>
-      <c r="B184" s="94"/>
-      <c r="C184" s="96"/>
-      <c r="D184" s="91" t="s">
+      <c r="A184" s="107"/>
+      <c r="B184" s="107"/>
+      <c r="C184" s="109"/>
+      <c r="D184" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E184" s="92"/>
+      <c r="E184" s="93"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="94"/>
-      <c r="B185" s="94"/>
-      <c r="C185" s="96"/>
+      <c r="A185" s="107"/>
+      <c r="B185" s="107"/>
+      <c r="C185" s="109"/>
       <c r="D185" s="53" t="s">
         <v>19</v>
       </c>
@@ -8281,9 +8281,9 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="94"/>
-      <c r="B186" s="94"/>
-      <c r="C186" s="96"/>
+      <c r="A186" s="107"/>
+      <c r="B186" s="107"/>
+      <c r="C186" s="109"/>
       <c r="D186" s="53" t="s">
         <v>21</v>
       </c>
@@ -8292,9 +8292,9 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="94"/>
-      <c r="B187" s="94"/>
-      <c r="C187" s="96"/>
+      <c r="A187" s="107"/>
+      <c r="B187" s="107"/>
+      <c r="C187" s="109"/>
       <c r="D187" s="53" t="s">
         <v>22</v>
       </c>
@@ -8303,9 +8303,9 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="94"/>
-      <c r="B188" s="94"/>
-      <c r="C188" s="96"/>
+      <c r="A188" s="107"/>
+      <c r="B188" s="107"/>
+      <c r="C188" s="109"/>
       <c r="D188" s="53" t="s">
         <v>23</v>
       </c>
@@ -8314,9 +8314,9 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="94"/>
-      <c r="B189" s="94"/>
-      <c r="C189" s="96"/>
+      <c r="A189" s="107"/>
+      <c r="B189" s="107"/>
+      <c r="C189" s="109"/>
       <c r="D189" s="53" t="s">
         <v>24</v>
       </c>
@@ -8325,9 +8325,9 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="94"/>
-      <c r="B190" s="94"/>
-      <c r="C190" s="96"/>
+      <c r="A190" s="107"/>
+      <c r="B190" s="107"/>
+      <c r="C190" s="109"/>
       <c r="D190" s="53" t="s">
         <v>25</v>
       </c>
@@ -8336,9 +8336,9 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="94"/>
-      <c r="B191" s="94"/>
-      <c r="C191" s="96"/>
+      <c r="A191" s="107"/>
+      <c r="B191" s="107"/>
+      <c r="C191" s="109"/>
       <c r="D191" s="53" t="s">
         <v>75</v>
       </c>
@@ -8347,9 +8347,9 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="94"/>
-      <c r="B192" s="94"/>
-      <c r="C192" s="96"/>
+      <c r="A192" s="107"/>
+      <c r="B192" s="107"/>
+      <c r="C192" s="109"/>
       <c r="D192" s="53" t="s">
         <v>26</v>
       </c>
@@ -8358,9 +8358,9 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="94"/>
-      <c r="B193" s="94"/>
-      <c r="C193" s="96"/>
+      <c r="A193" s="107"/>
+      <c r="B193" s="107"/>
+      <c r="C193" s="109"/>
       <c r="D193" s="53" t="s">
         <v>76</v>
       </c>
@@ -8369,9 +8369,9 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="94"/>
-      <c r="B194" s="94"/>
-      <c r="C194" s="96"/>
+      <c r="A194" s="107"/>
+      <c r="B194" s="107"/>
+      <c r="C194" s="109"/>
       <c r="D194" s="53" t="s">
         <v>27</v>
       </c>
@@ -8380,9 +8380,9 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="94"/>
-      <c r="B195" s="94"/>
-      <c r="C195" s="96"/>
+      <c r="A195" s="107"/>
+      <c r="B195" s="107"/>
+      <c r="C195" s="109"/>
       <c r="D195" s="53" t="s">
         <v>28</v>
       </c>
@@ -8391,9 +8391,9 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="94"/>
-      <c r="B196" s="94"/>
-      <c r="C196" s="96"/>
+      <c r="A196" s="107"/>
+      <c r="B196" s="107"/>
+      <c r="C196" s="109"/>
       <c r="D196" s="53" t="s">
         <v>29</v>
       </c>
@@ -8402,9 +8402,9 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="94"/>
-      <c r="B197" s="94"/>
-      <c r="C197" s="96"/>
+      <c r="A197" s="107"/>
+      <c r="B197" s="107"/>
+      <c r="C197" s="109"/>
       <c r="D197" s="53" t="s">
         <v>30</v>
       </c>
@@ -8413,9 +8413,9 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="94"/>
-      <c r="B198" s="94"/>
-      <c r="C198" s="96"/>
+      <c r="A198" s="107"/>
+      <c r="B198" s="107"/>
+      <c r="C198" s="109"/>
       <c r="D198" s="53" t="s">
         <v>31</v>
       </c>
@@ -8424,9 +8424,9 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="94"/>
-      <c r="B199" s="94"/>
-      <c r="C199" s="96"/>
+      <c r="A199" s="107"/>
+      <c r="B199" s="107"/>
+      <c r="C199" s="109"/>
       <c r="D199" s="53" t="s">
         <v>32</v>
       </c>
@@ -8435,9 +8435,9 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="94"/>
-      <c r="B200" s="94"/>
-      <c r="C200" s="96"/>
+      <c r="A200" s="107"/>
+      <c r="B200" s="107"/>
+      <c r="C200" s="109"/>
       <c r="D200" s="53" t="s">
         <v>33</v>
       </c>
@@ -8446,9 +8446,9 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="94"/>
-      <c r="B201" s="94"/>
-      <c r="C201" s="96"/>
+      <c r="A201" s="107"/>
+      <c r="B201" s="107"/>
+      <c r="C201" s="109"/>
       <c r="D201" s="53" t="s">
         <v>34</v>
       </c>
@@ -8457,9 +8457,9 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="94"/>
-      <c r="B202" s="94"/>
-      <c r="C202" s="96"/>
+      <c r="A202" s="107"/>
+      <c r="B202" s="107"/>
+      <c r="C202" s="109"/>
       <c r="D202" s="53" t="s">
         <v>35</v>
       </c>
@@ -8468,9 +8468,9 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="94"/>
-      <c r="B203" s="94"/>
-      <c r="C203" s="96"/>
+      <c r="A203" s="107"/>
+      <c r="B203" s="107"/>
+      <c r="C203" s="109"/>
       <c r="D203" s="53" t="s">
         <v>36</v>
       </c>
@@ -8479,9 +8479,9 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="94"/>
-      <c r="B204" s="94"/>
-      <c r="C204" s="96"/>
+      <c r="A204" s="107"/>
+      <c r="B204" s="107"/>
+      <c r="C204" s="109"/>
       <c r="D204" s="53" t="s">
         <v>37</v>
       </c>
@@ -8490,9 +8490,9 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="94"/>
-      <c r="B205" s="94"/>
-      <c r="C205" s="96"/>
+      <c r="A205" s="107"/>
+      <c r="B205" s="107"/>
+      <c r="C205" s="109"/>
       <c r="D205" s="53" t="s">
         <v>38</v>
       </c>
@@ -8501,9 +8501,9 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="94"/>
-      <c r="B206" s="94"/>
-      <c r="C206" s="96"/>
+      <c r="A206" s="107"/>
+      <c r="B206" s="107"/>
+      <c r="C206" s="109"/>
       <c r="D206" s="53" t="s">
         <v>40</v>
       </c>
@@ -8512,9 +8512,9 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="94"/>
-      <c r="B207" s="94"/>
-      <c r="C207" s="96"/>
+      <c r="A207" s="107"/>
+      <c r="B207" s="107"/>
+      <c r="C207" s="109"/>
       <c r="D207" s="53" t="s">
         <v>41</v>
       </c>
@@ -8523,9 +8523,9 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="94"/>
-      <c r="B208" s="94"/>
-      <c r="C208" s="96"/>
+      <c r="A208" s="107"/>
+      <c r="B208" s="107"/>
+      <c r="C208" s="109"/>
       <c r="D208" s="53" t="s">
         <v>42</v>
       </c>
@@ -8534,9 +8534,9 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="94"/>
-      <c r="B209" s="94"/>
-      <c r="C209" s="96"/>
+      <c r="A209" s="107"/>
+      <c r="B209" s="107"/>
+      <c r="C209" s="109"/>
       <c r="D209" s="53" t="s">
         <v>43</v>
       </c>
@@ -8545,9 +8545,9 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="94"/>
-      <c r="B210" s="94"/>
-      <c r="C210" s="96"/>
+      <c r="A210" s="107"/>
+      <c r="B210" s="107"/>
+      <c r="C210" s="109"/>
       <c r="D210" s="53" t="s">
         <v>44</v>
       </c>
@@ -8556,9 +8556,9 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="94"/>
-      <c r="B211" s="94"/>
-      <c r="C211" s="96"/>
+      <c r="A211" s="107"/>
+      <c r="B211" s="107"/>
+      <c r="C211" s="109"/>
       <c r="D211" s="53" t="s">
         <v>45</v>
       </c>
@@ -8567,9 +8567,9 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="94"/>
-      <c r="B212" s="94"/>
-      <c r="C212" s="96"/>
+      <c r="A212" s="107"/>
+      <c r="B212" s="107"/>
+      <c r="C212" s="109"/>
       <c r="D212" s="53" t="s">
         <v>46</v>
       </c>
@@ -8578,9 +8578,9 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="94"/>
-      <c r="B213" s="94"/>
-      <c r="C213" s="96"/>
+      <c r="A213" s="107"/>
+      <c r="B213" s="107"/>
+      <c r="C213" s="109"/>
       <c r="D213" s="53" t="s">
         <v>47</v>
       </c>
@@ -8589,9 +8589,9 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="94"/>
-      <c r="B214" s="94"/>
-      <c r="C214" s="96"/>
+      <c r="A214" s="107"/>
+      <c r="B214" s="107"/>
+      <c r="C214" s="109"/>
       <c r="D214" s="53" t="s">
         <v>77</v>
       </c>
@@ -8600,9 +8600,9 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="94"/>
-      <c r="B215" s="94"/>
-      <c r="C215" s="96"/>
+      <c r="A215" s="107"/>
+      <c r="B215" s="107"/>
+      <c r="C215" s="109"/>
       <c r="D215" s="53" t="s">
         <v>78</v>
       </c>
@@ -8611,9 +8611,9 @@
       </c>
     </row>
     <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="94"/>
-      <c r="B216" s="94"/>
-      <c r="C216" s="96"/>
+      <c r="A216" s="107"/>
+      <c r="B216" s="107"/>
+      <c r="C216" s="109"/>
       <c r="D216" s="53" t="s">
         <v>50</v>
       </c>
@@ -8622,9 +8622,9 @@
       </c>
     </row>
     <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="94"/>
-      <c r="B217" s="94"/>
-      <c r="C217" s="96"/>
+      <c r="A217" s="107"/>
+      <c r="B217" s="107"/>
+      <c r="C217" s="109"/>
       <c r="D217" s="53" t="s">
         <v>51</v>
       </c>
@@ -8633,9 +8633,9 @@
       </c>
     </row>
     <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="94"/>
-      <c r="B218" s="94"/>
-      <c r="C218" s="96"/>
+      <c r="A218" s="107"/>
+      <c r="B218" s="107"/>
+      <c r="C218" s="109"/>
       <c r="D218" s="53" t="s">
         <v>52</v>
       </c>
@@ -8644,9 +8644,9 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="94"/>
-      <c r="B219" s="94"/>
-      <c r="C219" s="96"/>
+      <c r="A219" s="107"/>
+      <c r="B219" s="107"/>
+      <c r="C219" s="109"/>
       <c r="D219" s="53" t="s">
         <v>56</v>
       </c>
@@ -8655,9 +8655,9 @@
       </c>
     </row>
     <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="94"/>
-      <c r="B220" s="94"/>
-      <c r="C220" s="96"/>
+      <c r="A220" s="107"/>
+      <c r="B220" s="107"/>
+      <c r="C220" s="109"/>
       <c r="D220" s="53" t="s">
         <v>57</v>
       </c>
@@ -8666,9 +8666,9 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="94"/>
-      <c r="B221" s="94"/>
-      <c r="C221" s="96"/>
+      <c r="A221" s="107"/>
+      <c r="B221" s="107"/>
+      <c r="C221" s="109"/>
       <c r="D221" s="53" t="s">
         <v>58</v>
       </c>
@@ -8677,9 +8677,9 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="94"/>
-      <c r="B222" s="94"/>
-      <c r="C222" s="96"/>
+      <c r="A222" s="107"/>
+      <c r="B222" s="107"/>
+      <c r="C222" s="109"/>
       <c r="D222" s="53" t="s">
         <v>64</v>
       </c>
@@ -8688,9 +8688,9 @@
       </c>
     </row>
     <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="94"/>
-      <c r="B223" s="94"/>
-      <c r="C223" s="96"/>
+      <c r="A223" s="107"/>
+      <c r="B223" s="107"/>
+      <c r="C223" s="109"/>
       <c r="D223" s="53" t="s">
         <v>65</v>
       </c>
@@ -8699,9 +8699,9 @@
       </c>
     </row>
     <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="94"/>
-      <c r="B224" s="94"/>
-      <c r="C224" s="96"/>
+      <c r="A224" s="107"/>
+      <c r="B224" s="107"/>
+      <c r="C224" s="109"/>
       <c r="D224" s="32" t="s">
         <v>66</v>
       </c>
@@ -8710,9 +8710,9 @@
       </c>
     </row>
     <row r="225" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="94"/>
-      <c r="B225" s="94"/>
-      <c r="C225" s="96"/>
+      <c r="A225" s="107"/>
+      <c r="B225" s="107"/>
+      <c r="C225" s="109"/>
       <c r="D225" s="53" t="s">
         <v>59</v>
       </c>
@@ -8721,9 +8721,9 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A226" s="94"/>
-      <c r="B226" s="94"/>
-      <c r="C226" s="96"/>
+      <c r="A226" s="107"/>
+      <c r="B226" s="107"/>
+      <c r="C226" s="109"/>
       <c r="D226" s="53" t="s">
         <v>60</v>
       </c>
@@ -8732,9 +8732,9 @@
       </c>
     </row>
     <row r="227" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="94"/>
-      <c r="B227" s="94"/>
-      <c r="C227" s="96"/>
+      <c r="A227" s="107"/>
+      <c r="B227" s="107"/>
+      <c r="C227" s="109"/>
       <c r="D227" s="53" t="s">
         <v>61</v>
       </c>
@@ -8743,9 +8743,9 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="94"/>
-      <c r="B228" s="94"/>
-      <c r="C228" s="96"/>
+      <c r="A228" s="107"/>
+      <c r="B228" s="107"/>
+      <c r="C228" s="109"/>
       <c r="D228" s="53" t="s">
         <v>62</v>
       </c>
@@ -8754,9 +8754,9 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="94"/>
-      <c r="B229" s="94"/>
-      <c r="C229" s="96"/>
+      <c r="A229" s="107"/>
+      <c r="B229" s="107"/>
+      <c r="C229" s="109"/>
       <c r="D229" s="53" t="s">
         <v>67</v>
       </c>
@@ -8765,9 +8765,9 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="94"/>
-      <c r="B230" s="94"/>
-      <c r="C230" s="96"/>
+      <c r="A230" s="107"/>
+      <c r="B230" s="107"/>
+      <c r="C230" s="109"/>
       <c r="D230" s="53" t="s">
         <v>68</v>
       </c>
@@ -8776,9 +8776,9 @@
       </c>
     </row>
     <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="94"/>
-      <c r="B231" s="94"/>
-      <c r="C231" s="96"/>
+      <c r="A231" s="107"/>
+      <c r="B231" s="107"/>
+      <c r="C231" s="109"/>
       <c r="D231" s="53" t="s">
         <v>69</v>
       </c>
@@ -8787,9 +8787,9 @@
       </c>
     </row>
     <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="94"/>
-      <c r="B232" s="94"/>
-      <c r="C232" s="96"/>
+      <c r="A232" s="107"/>
+      <c r="B232" s="107"/>
+      <c r="C232" s="109"/>
       <c r="D232" s="53" t="s">
         <v>70</v>
       </c>
@@ -8798,9 +8798,9 @@
       </c>
     </row>
     <row r="233" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="94"/>
-      <c r="B233" s="94"/>
-      <c r="C233" s="96"/>
+      <c r="A233" s="107"/>
+      <c r="B233" s="107"/>
+      <c r="C233" s="109"/>
       <c r="D233" s="53" t="s">
         <v>71</v>
       </c>
@@ -8809,9 +8809,9 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="94"/>
-      <c r="B234" s="94"/>
-      <c r="C234" s="96"/>
+      <c r="A234" s="107"/>
+      <c r="B234" s="107"/>
+      <c r="C234" s="109"/>
       <c r="D234" s="53" t="s">
         <v>72</v>
       </c>
@@ -8820,9 +8820,9 @@
       </c>
     </row>
     <row r="235" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="94"/>
-      <c r="B235" s="94"/>
-      <c r="C235" s="96"/>
+      <c r="A235" s="107"/>
+      <c r="B235" s="107"/>
+      <c r="C235" s="109"/>
       <c r="D235" s="53" t="s">
         <v>48</v>
       </c>
@@ -8831,9 +8831,9 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="94"/>
-      <c r="B236" s="94"/>
-      <c r="C236" s="96"/>
+      <c r="A236" s="107"/>
+      <c r="B236" s="107"/>
+      <c r="C236" s="109"/>
       <c r="D236" s="53" t="s">
         <v>73</v>
       </c>
@@ -8842,9 +8842,9 @@
       </c>
     </row>
     <row r="237" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="94"/>
-      <c r="B237" s="94"/>
-      <c r="C237" s="96"/>
+      <c r="A237" s="107"/>
+      <c r="B237" s="107"/>
+      <c r="C237" s="109"/>
       <c r="D237" s="53" t="s">
         <v>74</v>
       </c>
@@ -8853,18 +8853,18 @@
       </c>
     </row>
     <row r="238" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A238" s="94"/>
-      <c r="B238" s="94"/>
-      <c r="C238" s="96"/>
-      <c r="D238" s="91" t="s">
+      <c r="A238" s="107"/>
+      <c r="B238" s="107"/>
+      <c r="C238" s="109"/>
+      <c r="D238" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="E238" s="92"/>
+      <c r="E238" s="93"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="94"/>
-      <c r="B239" s="94"/>
-      <c r="C239" s="96"/>
+      <c r="A239" s="107"/>
+      <c r="B239" s="107"/>
+      <c r="C239" s="109"/>
       <c r="D239" s="53" t="s">
         <v>19</v>
       </c>
@@ -8873,9 +8873,9 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="94"/>
-      <c r="B240" s="94"/>
-      <c r="C240" s="96"/>
+      <c r="A240" s="107"/>
+      <c r="B240" s="107"/>
+      <c r="C240" s="109"/>
       <c r="D240" s="53" t="s">
         <v>21</v>
       </c>
@@ -8884,9 +8884,9 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="94"/>
-      <c r="B241" s="94"/>
-      <c r="C241" s="96"/>
+      <c r="A241" s="107"/>
+      <c r="B241" s="107"/>
+      <c r="C241" s="109"/>
       <c r="D241" s="53" t="s">
         <v>22</v>
       </c>
@@ -8895,9 +8895,9 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="94"/>
-      <c r="B242" s="94"/>
-      <c r="C242" s="96"/>
+      <c r="A242" s="107"/>
+      <c r="B242" s="107"/>
+      <c r="C242" s="109"/>
       <c r="D242" s="53" t="s">
         <v>23</v>
       </c>
@@ -8906,9 +8906,9 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="94"/>
-      <c r="B243" s="94"/>
-      <c r="C243" s="96"/>
+      <c r="A243" s="107"/>
+      <c r="B243" s="107"/>
+      <c r="C243" s="109"/>
       <c r="D243" s="53" t="s">
         <v>24</v>
       </c>
@@ -8917,9 +8917,9 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="94"/>
-      <c r="B244" s="94"/>
-      <c r="C244" s="96"/>
+      <c r="A244" s="107"/>
+      <c r="B244" s="107"/>
+      <c r="C244" s="109"/>
       <c r="D244" s="53" t="s">
         <v>25</v>
       </c>
@@ -8928,9 +8928,9 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="94"/>
-      <c r="B245" s="94"/>
-      <c r="C245" s="96"/>
+      <c r="A245" s="107"/>
+      <c r="B245" s="107"/>
+      <c r="C245" s="109"/>
       <c r="D245" s="53" t="s">
         <v>26</v>
       </c>
@@ -8939,9 +8939,9 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="94"/>
-      <c r="B246" s="94"/>
-      <c r="C246" s="96"/>
+      <c r="A246" s="107"/>
+      <c r="B246" s="107"/>
+      <c r="C246" s="109"/>
       <c r="D246" s="53" t="s">
         <v>27</v>
       </c>
@@ -8950,9 +8950,9 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="94"/>
-      <c r="B247" s="94"/>
-      <c r="C247" s="96"/>
+      <c r="A247" s="107"/>
+      <c r="B247" s="107"/>
+      <c r="C247" s="109"/>
       <c r="D247" s="53" t="s">
         <v>28</v>
       </c>
@@ -8961,9 +8961,9 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="94"/>
-      <c r="B248" s="94"/>
-      <c r="C248" s="96"/>
+      <c r="A248" s="107"/>
+      <c r="B248" s="107"/>
+      <c r="C248" s="109"/>
       <c r="D248" s="53" t="s">
         <v>29</v>
       </c>
@@ -8972,9 +8972,9 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="94"/>
-      <c r="B249" s="94"/>
-      <c r="C249" s="96"/>
+      <c r="A249" s="107"/>
+      <c r="B249" s="107"/>
+      <c r="C249" s="109"/>
       <c r="D249" s="53" t="s">
         <v>30</v>
       </c>
@@ -8983,9 +8983,9 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="94"/>
-      <c r="B250" s="94"/>
-      <c r="C250" s="96"/>
+      <c r="A250" s="107"/>
+      <c r="B250" s="107"/>
+      <c r="C250" s="109"/>
       <c r="D250" s="53" t="s">
         <v>31</v>
       </c>
@@ -8994,9 +8994,9 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="94"/>
-      <c r="B251" s="94"/>
-      <c r="C251" s="96"/>
+      <c r="A251" s="107"/>
+      <c r="B251" s="107"/>
+      <c r="C251" s="109"/>
       <c r="D251" s="53" t="s">
         <v>32</v>
       </c>
@@ -9005,9 +9005,9 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="94"/>
-      <c r="B252" s="94"/>
-      <c r="C252" s="96"/>
+      <c r="A252" s="107"/>
+      <c r="B252" s="107"/>
+      <c r="C252" s="109"/>
       <c r="D252" s="53" t="s">
         <v>33</v>
       </c>
@@ -9016,9 +9016,9 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="94"/>
-      <c r="B253" s="94"/>
-      <c r="C253" s="96"/>
+      <c r="A253" s="107"/>
+      <c r="B253" s="107"/>
+      <c r="C253" s="109"/>
       <c r="D253" s="53" t="s">
         <v>34</v>
       </c>
@@ -9027,9 +9027,9 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="94"/>
-      <c r="B254" s="94"/>
-      <c r="C254" s="96"/>
+      <c r="A254" s="107"/>
+      <c r="B254" s="107"/>
+      <c r="C254" s="109"/>
       <c r="D254" s="53" t="s">
         <v>35</v>
       </c>
@@ -9038,9 +9038,9 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="94"/>
-      <c r="B255" s="94"/>
-      <c r="C255" s="96"/>
+      <c r="A255" s="107"/>
+      <c r="B255" s="107"/>
+      <c r="C255" s="109"/>
       <c r="D255" s="53" t="s">
         <v>36</v>
       </c>
@@ -9049,9 +9049,9 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="94"/>
-      <c r="B256" s="94"/>
-      <c r="C256" s="96"/>
+      <c r="A256" s="107"/>
+      <c r="B256" s="107"/>
+      <c r="C256" s="109"/>
       <c r="D256" s="53" t="s">
         <v>37</v>
       </c>
@@ -9060,9 +9060,9 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="94"/>
-      <c r="B257" s="94"/>
-      <c r="C257" s="96"/>
+      <c r="A257" s="107"/>
+      <c r="B257" s="107"/>
+      <c r="C257" s="109"/>
       <c r="D257" s="53" t="s">
         <v>38</v>
       </c>
@@ -9071,9 +9071,9 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="94"/>
-      <c r="B258" s="94"/>
-      <c r="C258" s="96"/>
+      <c r="A258" s="107"/>
+      <c r="B258" s="107"/>
+      <c r="C258" s="109"/>
       <c r="D258" s="53" t="s">
         <v>40</v>
       </c>
@@ -9082,9 +9082,9 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="94"/>
-      <c r="B259" s="94"/>
-      <c r="C259" s="96"/>
+      <c r="A259" s="107"/>
+      <c r="B259" s="107"/>
+      <c r="C259" s="109"/>
       <c r="D259" s="53" t="s">
         <v>41</v>
       </c>
@@ -9093,9 +9093,9 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="94"/>
-      <c r="B260" s="94"/>
-      <c r="C260" s="96"/>
+      <c r="A260" s="107"/>
+      <c r="B260" s="107"/>
+      <c r="C260" s="109"/>
       <c r="D260" s="53" t="s">
         <v>42</v>
       </c>
@@ -9104,9 +9104,9 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="94"/>
-      <c r="B261" s="94"/>
-      <c r="C261" s="96"/>
+      <c r="A261" s="107"/>
+      <c r="B261" s="107"/>
+      <c r="C261" s="109"/>
       <c r="D261" s="53" t="s">
         <v>43</v>
       </c>
@@ -9115,9 +9115,9 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="94"/>
-      <c r="B262" s="94"/>
-      <c r="C262" s="96"/>
+      <c r="A262" s="107"/>
+      <c r="B262" s="107"/>
+      <c r="C262" s="109"/>
       <c r="D262" s="53" t="s">
         <v>44</v>
       </c>
@@ -9126,9 +9126,9 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="94"/>
-      <c r="B263" s="94"/>
-      <c r="C263" s="96"/>
+      <c r="A263" s="107"/>
+      <c r="B263" s="107"/>
+      <c r="C263" s="109"/>
       <c r="D263" s="53" t="s">
         <v>45</v>
       </c>
@@ -9137,9 +9137,9 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="94"/>
-      <c r="B264" s="94"/>
-      <c r="C264" s="96"/>
+      <c r="A264" s="107"/>
+      <c r="B264" s="107"/>
+      <c r="C264" s="109"/>
       <c r="D264" s="53" t="s">
         <v>46</v>
       </c>
@@ -9148,9 +9148,9 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="94"/>
-      <c r="B265" s="94"/>
-      <c r="C265" s="96"/>
+      <c r="A265" s="107"/>
+      <c r="B265" s="107"/>
+      <c r="C265" s="109"/>
       <c r="D265" s="53" t="s">
         <v>47</v>
       </c>
@@ -9159,9 +9159,9 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="94"/>
-      <c r="B266" s="94"/>
-      <c r="C266" s="96"/>
+      <c r="A266" s="107"/>
+      <c r="B266" s="107"/>
+      <c r="C266" s="109"/>
       <c r="D266" s="53" t="s">
         <v>77</v>
       </c>
@@ -9170,9 +9170,9 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="94"/>
-      <c r="B267" s="94"/>
-      <c r="C267" s="96"/>
+      <c r="A267" s="107"/>
+      <c r="B267" s="107"/>
+      <c r="C267" s="109"/>
       <c r="D267" s="53" t="s">
         <v>78</v>
       </c>
@@ -9181,9 +9181,9 @@
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="94"/>
-      <c r="B268" s="94"/>
-      <c r="C268" s="96"/>
+      <c r="A268" s="107"/>
+      <c r="B268" s="107"/>
+      <c r="C268" s="109"/>
       <c r="D268" s="53" t="s">
         <v>50</v>
       </c>
@@ -9192,9 +9192,9 @@
       </c>
     </row>
     <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="94"/>
-      <c r="B269" s="94"/>
-      <c r="C269" s="96"/>
+      <c r="A269" s="107"/>
+      <c r="B269" s="107"/>
+      <c r="C269" s="109"/>
       <c r="D269" s="53" t="s">
         <v>51</v>
       </c>
@@ -9203,9 +9203,9 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="94"/>
-      <c r="B270" s="94"/>
-      <c r="C270" s="96"/>
+      <c r="A270" s="107"/>
+      <c r="B270" s="107"/>
+      <c r="C270" s="109"/>
       <c r="D270" s="53" t="s">
         <v>52</v>
       </c>
@@ -9214,9 +9214,9 @@
       </c>
     </row>
     <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="94"/>
-      <c r="B271" s="94"/>
-      <c r="C271" s="96"/>
+      <c r="A271" s="107"/>
+      <c r="B271" s="107"/>
+      <c r="C271" s="109"/>
       <c r="D271" s="53" t="s">
         <v>53</v>
       </c>
@@ -9225,9 +9225,9 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="94"/>
-      <c r="B272" s="94"/>
-      <c r="C272" s="96"/>
+      <c r="A272" s="107"/>
+      <c r="B272" s="107"/>
+      <c r="C272" s="109"/>
       <c r="D272" s="53" t="s">
         <v>79</v>
       </c>
@@ -9236,9 +9236,9 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="94"/>
-      <c r="B273" s="94"/>
-      <c r="C273" s="96"/>
+      <c r="A273" s="107"/>
+      <c r="B273" s="107"/>
+      <c r="C273" s="109"/>
       <c r="D273" s="53" t="s">
         <v>80</v>
       </c>
@@ -9247,9 +9247,9 @@
       </c>
     </row>
     <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="94"/>
-      <c r="B274" s="94"/>
-      <c r="C274" s="96"/>
+      <c r="A274" s="107"/>
+      <c r="B274" s="107"/>
+      <c r="C274" s="109"/>
       <c r="D274" s="53" t="s">
         <v>56</v>
       </c>
@@ -9258,9 +9258,9 @@
       </c>
     </row>
     <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="94"/>
-      <c r="B275" s="94"/>
-      <c r="C275" s="96"/>
+      <c r="A275" s="107"/>
+      <c r="B275" s="107"/>
+      <c r="C275" s="109"/>
       <c r="D275" s="53" t="s">
         <v>57</v>
       </c>
@@ -9269,9 +9269,9 @@
       </c>
     </row>
     <row r="276" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="94"/>
-      <c r="B276" s="94"/>
-      <c r="C276" s="96"/>
+      <c r="A276" s="107"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="109"/>
       <c r="D276" s="53" t="s">
         <v>58</v>
       </c>
@@ -9280,9 +9280,9 @@
       </c>
     </row>
     <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="94"/>
-      <c r="B277" s="94"/>
-      <c r="C277" s="96"/>
+      <c r="A277" s="107"/>
+      <c r="B277" s="107"/>
+      <c r="C277" s="109"/>
       <c r="D277" s="53" t="s">
         <v>59</v>
       </c>
@@ -9291,9 +9291,9 @@
       </c>
     </row>
     <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="94"/>
-      <c r="B278" s="94"/>
-      <c r="C278" s="96"/>
+      <c r="A278" s="107"/>
+      <c r="B278" s="107"/>
+      <c r="C278" s="109"/>
       <c r="D278" s="53" t="s">
         <v>60</v>
       </c>
@@ -9302,9 +9302,9 @@
       </c>
     </row>
     <row r="279" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="94"/>
-      <c r="B279" s="94"/>
-      <c r="C279" s="96"/>
+      <c r="A279" s="107"/>
+      <c r="B279" s="107"/>
+      <c r="C279" s="109"/>
       <c r="D279" s="53" t="s">
         <v>61</v>
       </c>
@@ -9313,9 +9313,9 @@
       </c>
     </row>
     <row r="280" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="94"/>
-      <c r="B280" s="94"/>
-      <c r="C280" s="96"/>
+      <c r="A280" s="107"/>
+      <c r="B280" s="107"/>
+      <c r="C280" s="109"/>
       <c r="D280" s="53" t="s">
         <v>62</v>
       </c>
@@ -9324,9 +9324,9 @@
       </c>
     </row>
     <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="94"/>
-      <c r="B281" s="94"/>
-      <c r="C281" s="96"/>
+      <c r="A281" s="107"/>
+      <c r="B281" s="107"/>
+      <c r="C281" s="109"/>
       <c r="D281" s="53" t="s">
         <v>74</v>
       </c>
@@ -9335,18 +9335,18 @@
       </c>
     </row>
     <row r="282" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A282" s="94"/>
-      <c r="B282" s="94"/>
-      <c r="C282" s="96"/>
-      <c r="D282" s="91" t="s">
+      <c r="A282" s="107"/>
+      <c r="B282" s="107"/>
+      <c r="C282" s="109"/>
+      <c r="D282" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="E282" s="92"/>
+      <c r="E282" s="93"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="94"/>
-      <c r="B283" s="94"/>
-      <c r="C283" s="96"/>
+      <c r="A283" s="107"/>
+      <c r="B283" s="107"/>
+      <c r="C283" s="109"/>
       <c r="D283" s="53" t="s">
         <v>19</v>
       </c>
@@ -9355,9 +9355,9 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="94"/>
-      <c r="B284" s="94"/>
-      <c r="C284" s="96"/>
+      <c r="A284" s="107"/>
+      <c r="B284" s="107"/>
+      <c r="C284" s="109"/>
       <c r="D284" s="53" t="s">
         <v>21</v>
       </c>
@@ -9366,9 +9366,9 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="94"/>
-      <c r="B285" s="94"/>
-      <c r="C285" s="96"/>
+      <c r="A285" s="107"/>
+      <c r="B285" s="107"/>
+      <c r="C285" s="109"/>
       <c r="D285" s="53" t="s">
         <v>22</v>
       </c>
@@ -9377,9 +9377,9 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="94"/>
-      <c r="B286" s="94"/>
-      <c r="C286" s="96"/>
+      <c r="A286" s="107"/>
+      <c r="B286" s="107"/>
+      <c r="C286" s="109"/>
       <c r="D286" s="53" t="s">
         <v>23</v>
       </c>
@@ -9388,9 +9388,9 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="94"/>
-      <c r="B287" s="94"/>
-      <c r="C287" s="96"/>
+      <c r="A287" s="107"/>
+      <c r="B287" s="107"/>
+      <c r="C287" s="109"/>
       <c r="D287" s="53" t="s">
         <v>81</v>
       </c>
@@ -9399,9 +9399,9 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="94"/>
-      <c r="B288" s="94"/>
-      <c r="C288" s="96"/>
+      <c r="A288" s="107"/>
+      <c r="B288" s="107"/>
+      <c r="C288" s="109"/>
       <c r="D288" s="53" t="s">
         <v>82</v>
       </c>
@@ -9410,9 +9410,9 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="94"/>
-      <c r="B289" s="94"/>
-      <c r="C289" s="96"/>
+      <c r="A289" s="107"/>
+      <c r="B289" s="107"/>
+      <c r="C289" s="109"/>
       <c r="D289" s="53" t="s">
         <v>83</v>
       </c>
@@ -9421,9 +9421,9 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="94"/>
-      <c r="B290" s="94"/>
-      <c r="C290" s="96"/>
+      <c r="A290" s="107"/>
+      <c r="B290" s="107"/>
+      <c r="C290" s="109"/>
       <c r="D290" s="53" t="s">
         <v>84</v>
       </c>
@@ -9432,9 +9432,9 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="94"/>
-      <c r="B291" s="94"/>
-      <c r="C291" s="96"/>
+      <c r="A291" s="107"/>
+      <c r="B291" s="107"/>
+      <c r="C291" s="109"/>
       <c r="D291" s="53" t="s">
         <v>85</v>
       </c>
@@ -9443,9 +9443,9 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="94"/>
-      <c r="B292" s="94"/>
-      <c r="C292" s="96"/>
+      <c r="A292" s="107"/>
+      <c r="B292" s="107"/>
+      <c r="C292" s="109"/>
       <c r="D292" s="53" t="s">
         <v>86</v>
       </c>
@@ -9454,9 +9454,9 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="94"/>
-      <c r="B293" s="94"/>
-      <c r="C293" s="96"/>
+      <c r="A293" s="107"/>
+      <c r="B293" s="107"/>
+      <c r="C293" s="109"/>
       <c r="D293" s="53" t="s">
         <v>87</v>
       </c>
@@ -9465,9 +9465,9 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="94"/>
-      <c r="B294" s="94"/>
-      <c r="C294" s="96"/>
+      <c r="A294" s="107"/>
+      <c r="B294" s="107"/>
+      <c r="C294" s="109"/>
       <c r="D294" s="53" t="s">
         <v>88</v>
       </c>
@@ -9476,9 +9476,9 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="94"/>
-      <c r="B295" s="94"/>
-      <c r="C295" s="96"/>
+      <c r="A295" s="107"/>
+      <c r="B295" s="107"/>
+      <c r="C295" s="109"/>
       <c r="D295" s="53" t="s">
         <v>89</v>
       </c>
@@ -9487,9 +9487,9 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="94"/>
-      <c r="B296" s="94"/>
-      <c r="C296" s="96"/>
+      <c r="A296" s="107"/>
+      <c r="B296" s="107"/>
+      <c r="C296" s="109"/>
       <c r="D296" s="53" t="s">
         <v>90</v>
       </c>
@@ -9498,9 +9498,9 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="94"/>
-      <c r="B297" s="94"/>
-      <c r="C297" s="96"/>
+      <c r="A297" s="107"/>
+      <c r="B297" s="107"/>
+      <c r="C297" s="109"/>
       <c r="D297" s="53" t="s">
         <v>91</v>
       </c>
@@ -9509,9 +9509,9 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="94"/>
-      <c r="B298" s="94"/>
-      <c r="C298" s="96"/>
+      <c r="A298" s="107"/>
+      <c r="B298" s="107"/>
+      <c r="C298" s="109"/>
       <c r="D298" s="53" t="s">
         <v>92</v>
       </c>
@@ -9520,9 +9520,9 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="94"/>
-      <c r="B299" s="94"/>
-      <c r="C299" s="96"/>
+      <c r="A299" s="107"/>
+      <c r="B299" s="107"/>
+      <c r="C299" s="109"/>
       <c r="D299" s="53" t="s">
         <v>93</v>
       </c>
@@ -9531,9 +9531,9 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="94"/>
-      <c r="B300" s="94"/>
-      <c r="C300" s="96"/>
+      <c r="A300" s="107"/>
+      <c r="B300" s="107"/>
+      <c r="C300" s="109"/>
       <c r="D300" s="53" t="s">
         <v>94</v>
       </c>
@@ -9542,9 +9542,9 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="94"/>
-      <c r="B301" s="94"/>
-      <c r="C301" s="96"/>
+      <c r="A301" s="107"/>
+      <c r="B301" s="107"/>
+      <c r="C301" s="109"/>
       <c r="D301" s="53" t="s">
         <v>95</v>
       </c>
@@ -9553,9 +9553,9 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="94"/>
-      <c r="B302" s="94"/>
-      <c r="C302" s="96"/>
+      <c r="A302" s="107"/>
+      <c r="B302" s="107"/>
+      <c r="C302" s="109"/>
       <c r="D302" s="53" t="s">
         <v>24</v>
       </c>
@@ -9564,9 +9564,9 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="94"/>
-      <c r="B303" s="94"/>
-      <c r="C303" s="96"/>
+      <c r="A303" s="107"/>
+      <c r="B303" s="107"/>
+      <c r="C303" s="109"/>
       <c r="D303" s="53" t="s">
         <v>25</v>
       </c>
@@ -9575,9 +9575,9 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="94"/>
-      <c r="B304" s="94"/>
-      <c r="C304" s="96"/>
+      <c r="A304" s="107"/>
+      <c r="B304" s="107"/>
+      <c r="C304" s="109"/>
       <c r="D304" s="53" t="s">
         <v>26</v>
       </c>
@@ -9586,9 +9586,9 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="94"/>
-      <c r="B305" s="94"/>
-      <c r="C305" s="96"/>
+      <c r="A305" s="107"/>
+      <c r="B305" s="107"/>
+      <c r="C305" s="109"/>
       <c r="D305" s="53" t="s">
         <v>27</v>
       </c>
@@ -9597,9 +9597,9 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="94"/>
-      <c r="B306" s="94"/>
-      <c r="C306" s="96"/>
+      <c r="A306" s="107"/>
+      <c r="B306" s="107"/>
+      <c r="C306" s="109"/>
       <c r="D306" s="53" t="s">
         <v>28</v>
       </c>
@@ -9608,9 +9608,9 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="94"/>
-      <c r="B307" s="94"/>
-      <c r="C307" s="96"/>
+      <c r="A307" s="107"/>
+      <c r="B307" s="107"/>
+      <c r="C307" s="109"/>
       <c r="D307" s="53" t="s">
         <v>29</v>
       </c>
@@ -9619,9 +9619,9 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="94"/>
-      <c r="B308" s="94"/>
-      <c r="C308" s="96"/>
+      <c r="A308" s="107"/>
+      <c r="B308" s="107"/>
+      <c r="C308" s="109"/>
       <c r="D308" s="53" t="s">
         <v>30</v>
       </c>
@@ -9630,9 +9630,9 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="94"/>
-      <c r="B309" s="94"/>
-      <c r="C309" s="96"/>
+      <c r="A309" s="107"/>
+      <c r="B309" s="107"/>
+      <c r="C309" s="109"/>
       <c r="D309" s="53" t="s">
         <v>31</v>
       </c>
@@ -9641,9 +9641,9 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="94"/>
-      <c r="B310" s="94"/>
-      <c r="C310" s="96"/>
+      <c r="A310" s="107"/>
+      <c r="B310" s="107"/>
+      <c r="C310" s="109"/>
       <c r="D310" s="53" t="s">
         <v>32</v>
       </c>
@@ -9652,9 +9652,9 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="94"/>
-      <c r="B311" s="94"/>
-      <c r="C311" s="96"/>
+      <c r="A311" s="107"/>
+      <c r="B311" s="107"/>
+      <c r="C311" s="109"/>
       <c r="D311" s="53" t="s">
         <v>33</v>
       </c>
@@ -9663,9 +9663,9 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="94"/>
-      <c r="B312" s="94"/>
-      <c r="C312" s="96"/>
+      <c r="A312" s="107"/>
+      <c r="B312" s="107"/>
+      <c r="C312" s="109"/>
       <c r="D312" s="53" t="s">
         <v>34</v>
       </c>
@@ -9674,9 +9674,9 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="94"/>
-      <c r="B313" s="94"/>
-      <c r="C313" s="96"/>
+      <c r="A313" s="107"/>
+      <c r="B313" s="107"/>
+      <c r="C313" s="109"/>
       <c r="D313" s="53" t="s">
         <v>35</v>
       </c>
@@ -9685,9 +9685,9 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="94"/>
-      <c r="B314" s="94"/>
-      <c r="C314" s="96"/>
+      <c r="A314" s="107"/>
+      <c r="B314" s="107"/>
+      <c r="C314" s="109"/>
       <c r="D314" s="53" t="s">
         <v>36</v>
       </c>
@@ -9696,9 +9696,9 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="94"/>
-      <c r="B315" s="94"/>
-      <c r="C315" s="96"/>
+      <c r="A315" s="107"/>
+      <c r="B315" s="107"/>
+      <c r="C315" s="109"/>
       <c r="D315" s="53" t="s">
         <v>37</v>
       </c>
@@ -9707,9 +9707,9 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="94"/>
-      <c r="B316" s="94"/>
-      <c r="C316" s="96"/>
+      <c r="A316" s="107"/>
+      <c r="B316" s="107"/>
+      <c r="C316" s="109"/>
       <c r="D316" s="53" t="s">
         <v>38</v>
       </c>
@@ -9718,9 +9718,9 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="94"/>
-      <c r="B317" s="94"/>
-      <c r="C317" s="96"/>
+      <c r="A317" s="107"/>
+      <c r="B317" s="107"/>
+      <c r="C317" s="109"/>
       <c r="D317" s="53" t="s">
         <v>96</v>
       </c>
@@ -9729,9 +9729,9 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="94"/>
-      <c r="B318" s="94"/>
-      <c r="C318" s="96"/>
+      <c r="A318" s="107"/>
+      <c r="B318" s="107"/>
+      <c r="C318" s="109"/>
       <c r="D318" s="53" t="s">
         <v>97</v>
       </c>
@@ -9740,9 +9740,9 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="94"/>
-      <c r="B319" s="94"/>
-      <c r="C319" s="96"/>
+      <c r="A319" s="107"/>
+      <c r="B319" s="107"/>
+      <c r="C319" s="109"/>
       <c r="D319" s="53" t="s">
         <v>42</v>
       </c>
@@ -9751,9 +9751,9 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="94"/>
-      <c r="B320" s="94"/>
-      <c r="C320" s="96"/>
+      <c r="A320" s="107"/>
+      <c r="B320" s="107"/>
+      <c r="C320" s="109"/>
       <c r="D320" s="53" t="s">
         <v>43</v>
       </c>
@@ -9762,9 +9762,9 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="94"/>
-      <c r="B321" s="94"/>
-      <c r="C321" s="96"/>
+      <c r="A321" s="107"/>
+      <c r="B321" s="107"/>
+      <c r="C321" s="109"/>
       <c r="D321" s="53" t="s">
         <v>44</v>
       </c>
@@ -9773,9 +9773,9 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="94"/>
-      <c r="B322" s="94"/>
-      <c r="C322" s="96"/>
+      <c r="A322" s="107"/>
+      <c r="B322" s="107"/>
+      <c r="C322" s="109"/>
       <c r="D322" s="53" t="s">
         <v>45</v>
       </c>
@@ -9784,9 +9784,9 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="94"/>
-      <c r="B323" s="94"/>
-      <c r="C323" s="96"/>
+      <c r="A323" s="107"/>
+      <c r="B323" s="107"/>
+      <c r="C323" s="109"/>
       <c r="D323" s="53" t="s">
         <v>98</v>
       </c>
@@ -9795,9 +9795,9 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="94"/>
-      <c r="B324" s="94"/>
-      <c r="C324" s="96"/>
+      <c r="A324" s="107"/>
+      <c r="B324" s="107"/>
+      <c r="C324" s="109"/>
       <c r="D324" s="53" t="s">
         <v>96</v>
       </c>
@@ -9806,9 +9806,9 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="94"/>
-      <c r="B325" s="94"/>
-      <c r="C325" s="96"/>
+      <c r="A325" s="107"/>
+      <c r="B325" s="107"/>
+      <c r="C325" s="109"/>
       <c r="D325" s="53" t="s">
         <v>97</v>
       </c>
@@ -9817,9 +9817,9 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="94"/>
-      <c r="B326" s="94"/>
-      <c r="C326" s="96"/>
+      <c r="A326" s="107"/>
+      <c r="B326" s="107"/>
+      <c r="C326" s="109"/>
       <c r="D326" s="53" t="s">
         <v>42</v>
       </c>
@@ -9828,9 +9828,9 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="94"/>
-      <c r="B327" s="94"/>
-      <c r="C327" s="96"/>
+      <c r="A327" s="107"/>
+      <c r="B327" s="107"/>
+      <c r="C327" s="109"/>
       <c r="D327" s="53" t="s">
         <v>43</v>
       </c>
@@ -9839,9 +9839,9 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="94"/>
-      <c r="B328" s="94"/>
-      <c r="C328" s="96"/>
+      <c r="A328" s="107"/>
+      <c r="B328" s="107"/>
+      <c r="C328" s="109"/>
       <c r="D328" s="53" t="s">
         <v>44</v>
       </c>
@@ -9850,9 +9850,9 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="94"/>
-      <c r="B329" s="94"/>
-      <c r="C329" s="96"/>
+      <c r="A329" s="107"/>
+      <c r="B329" s="107"/>
+      <c r="C329" s="109"/>
       <c r="D329" s="53" t="s">
         <v>45</v>
       </c>
@@ -9861,9 +9861,9 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="94"/>
-      <c r="B330" s="94"/>
-      <c r="C330" s="96"/>
+      <c r="A330" s="107"/>
+      <c r="B330" s="107"/>
+      <c r="C330" s="109"/>
       <c r="D330" s="53" t="s">
         <v>98</v>
       </c>
@@ -9872,9 +9872,9 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="94"/>
-      <c r="B331" s="94"/>
-      <c r="C331" s="96"/>
+      <c r="A331" s="107"/>
+      <c r="B331" s="107"/>
+      <c r="C331" s="109"/>
       <c r="D331" s="53" t="s">
         <v>99</v>
       </c>
@@ -9883,9 +9883,9 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="94"/>
-      <c r="B332" s="94"/>
-      <c r="C332" s="96"/>
+      <c r="A332" s="107"/>
+      <c r="B332" s="107"/>
+      <c r="C332" s="109"/>
       <c r="D332" s="53" t="s">
         <v>100</v>
       </c>
@@ -9894,18 +9894,18 @@
       </c>
     </row>
     <row r="333" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A333" s="94"/>
-      <c r="B333" s="94"/>
-      <c r="C333" s="96"/>
-      <c r="D333" s="91" t="s">
+      <c r="A333" s="107"/>
+      <c r="B333" s="107"/>
+      <c r="C333" s="109"/>
+      <c r="D333" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="E333" s="92"/>
+      <c r="E333" s="93"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="94"/>
-      <c r="B334" s="94"/>
-      <c r="C334" s="96"/>
+      <c r="A334" s="107"/>
+      <c r="B334" s="107"/>
+      <c r="C334" s="109"/>
       <c r="D334" s="53" t="s">
         <v>19</v>
       </c>
@@ -9914,9 +9914,9 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="94"/>
-      <c r="B335" s="94"/>
-      <c r="C335" s="96"/>
+      <c r="A335" s="107"/>
+      <c r="B335" s="107"/>
+      <c r="C335" s="109"/>
       <c r="D335" s="53" t="s">
         <v>21</v>
       </c>
@@ -9925,9 +9925,9 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="94"/>
-      <c r="B336" s="94"/>
-      <c r="C336" s="96"/>
+      <c r="A336" s="107"/>
+      <c r="B336" s="107"/>
+      <c r="C336" s="109"/>
       <c r="D336" s="53" t="s">
         <v>22</v>
       </c>
@@ -9936,9 +9936,9 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="94"/>
-      <c r="B337" s="94"/>
-      <c r="C337" s="96"/>
+      <c r="A337" s="107"/>
+      <c r="B337" s="107"/>
+      <c r="C337" s="109"/>
       <c r="D337" s="53" t="s">
         <v>23</v>
       </c>
@@ -9947,9 +9947,9 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="94"/>
-      <c r="B338" s="94"/>
-      <c r="C338" s="96"/>
+      <c r="A338" s="107"/>
+      <c r="B338" s="107"/>
+      <c r="C338" s="109"/>
       <c r="D338" s="53" t="s">
         <v>81</v>
       </c>
@@ -9958,9 +9958,9 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="94"/>
-      <c r="B339" s="94"/>
-      <c r="C339" s="96"/>
+      <c r="A339" s="107"/>
+      <c r="B339" s="107"/>
+      <c r="C339" s="109"/>
       <c r="D339" s="53" t="s">
         <v>82</v>
       </c>
@@ -9969,9 +9969,9 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="94"/>
-      <c r="B340" s="94"/>
-      <c r="C340" s="96"/>
+      <c r="A340" s="107"/>
+      <c r="B340" s="107"/>
+      <c r="C340" s="109"/>
       <c r="D340" s="53" t="s">
         <v>83</v>
       </c>
@@ -9980,9 +9980,9 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="94"/>
-      <c r="B341" s="94"/>
-      <c r="C341" s="96"/>
+      <c r="A341" s="107"/>
+      <c r="B341" s="107"/>
+      <c r="C341" s="109"/>
       <c r="D341" s="53" t="s">
         <v>84</v>
       </c>
@@ -9991,9 +9991,9 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="94"/>
-      <c r="B342" s="94"/>
-      <c r="C342" s="96"/>
+      <c r="A342" s="107"/>
+      <c r="B342" s="107"/>
+      <c r="C342" s="109"/>
       <c r="D342" s="53" t="s">
         <v>85</v>
       </c>
@@ -10002,9 +10002,9 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="94"/>
-      <c r="B343" s="94"/>
-      <c r="C343" s="96"/>
+      <c r="A343" s="107"/>
+      <c r="B343" s="107"/>
+      <c r="C343" s="109"/>
       <c r="D343" s="53" t="s">
         <v>86</v>
       </c>
@@ -10013,9 +10013,9 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="94"/>
-      <c r="B344" s="94"/>
-      <c r="C344" s="96"/>
+      <c r="A344" s="107"/>
+      <c r="B344" s="107"/>
+      <c r="C344" s="109"/>
       <c r="D344" s="53" t="s">
         <v>87</v>
       </c>
@@ -10024,9 +10024,9 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="94"/>
-      <c r="B345" s="94"/>
-      <c r="C345" s="96"/>
+      <c r="A345" s="107"/>
+      <c r="B345" s="107"/>
+      <c r="C345" s="109"/>
       <c r="D345" s="53" t="s">
         <v>88</v>
       </c>
@@ -10035,9 +10035,9 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="94"/>
-      <c r="B346" s="94"/>
-      <c r="C346" s="96"/>
+      <c r="A346" s="107"/>
+      <c r="B346" s="107"/>
+      <c r="C346" s="109"/>
       <c r="D346" s="53" t="s">
         <v>89</v>
       </c>
@@ -10046,9 +10046,9 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="94"/>
-      <c r="B347" s="94"/>
-      <c r="C347" s="96"/>
+      <c r="A347" s="107"/>
+      <c r="B347" s="107"/>
+      <c r="C347" s="109"/>
       <c r="D347" s="53" t="s">
         <v>90</v>
       </c>
@@ -10057,9 +10057,9 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="94"/>
-      <c r="B348" s="94"/>
-      <c r="C348" s="96"/>
+      <c r="A348" s="107"/>
+      <c r="B348" s="107"/>
+      <c r="C348" s="109"/>
       <c r="D348" s="53" t="s">
         <v>91</v>
       </c>
@@ -10068,9 +10068,9 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="94"/>
-      <c r="B349" s="94"/>
-      <c r="C349" s="96"/>
+      <c r="A349" s="107"/>
+      <c r="B349" s="107"/>
+      <c r="C349" s="109"/>
       <c r="D349" s="53" t="s">
         <v>92</v>
       </c>
@@ -10079,9 +10079,9 @@
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="94"/>
-      <c r="B350" s="94"/>
-      <c r="C350" s="96"/>
+      <c r="A350" s="107"/>
+      <c r="B350" s="107"/>
+      <c r="C350" s="109"/>
       <c r="D350" s="53" t="s">
         <v>93</v>
       </c>
@@ -10090,9 +10090,9 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="94"/>
-      <c r="B351" s="94"/>
-      <c r="C351" s="96"/>
+      <c r="A351" s="107"/>
+      <c r="B351" s="107"/>
+      <c r="C351" s="109"/>
       <c r="D351" s="53" t="s">
         <v>94</v>
       </c>
@@ -10101,9 +10101,9 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="94"/>
-      <c r="B352" s="94"/>
-      <c r="C352" s="96"/>
+      <c r="A352" s="107"/>
+      <c r="B352" s="107"/>
+      <c r="C352" s="109"/>
       <c r="D352" s="53" t="s">
         <v>95</v>
       </c>
@@ -10112,9 +10112,9 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="94"/>
-      <c r="B353" s="94"/>
-      <c r="C353" s="96"/>
+      <c r="A353" s="107"/>
+      <c r="B353" s="107"/>
+      <c r="C353" s="109"/>
       <c r="D353" s="53" t="s">
         <v>101</v>
       </c>
@@ -10123,9 +10123,9 @@
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="94"/>
-      <c r="B354" s="94"/>
-      <c r="C354" s="96"/>
+      <c r="A354" s="107"/>
+      <c r="B354" s="107"/>
+      <c r="C354" s="109"/>
       <c r="D354" s="53" t="s">
         <v>102</v>
       </c>
@@ -10134,9 +10134,9 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="94"/>
-      <c r="B355" s="94"/>
-      <c r="C355" s="96"/>
+      <c r="A355" s="107"/>
+      <c r="B355" s="107"/>
+      <c r="C355" s="109"/>
       <c r="D355" s="53" t="s">
         <v>103</v>
       </c>
@@ -10145,9 +10145,9 @@
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="94"/>
-      <c r="B356" s="94"/>
-      <c r="C356" s="96"/>
+      <c r="A356" s="107"/>
+      <c r="B356" s="107"/>
+      <c r="C356" s="109"/>
       <c r="D356" s="53" t="s">
         <v>104</v>
       </c>
@@ -10156,9 +10156,9 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="94"/>
-      <c r="B357" s="94"/>
-      <c r="C357" s="96"/>
+      <c r="A357" s="107"/>
+      <c r="B357" s="107"/>
+      <c r="C357" s="109"/>
       <c r="D357" s="53" t="s">
         <v>105</v>
       </c>
@@ -10167,9 +10167,9 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="94"/>
-      <c r="B358" s="94"/>
-      <c r="C358" s="96"/>
+      <c r="A358" s="107"/>
+      <c r="B358" s="107"/>
+      <c r="C358" s="109"/>
       <c r="D358" s="53" t="s">
         <v>106</v>
       </c>
@@ -10178,9 +10178,9 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="94"/>
-      <c r="B359" s="94"/>
-      <c r="C359" s="96"/>
+      <c r="A359" s="107"/>
+      <c r="B359" s="107"/>
+      <c r="C359" s="109"/>
       <c r="D359" s="53" t="s">
         <v>107</v>
       </c>
@@ -10189,9 +10189,9 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="94"/>
-      <c r="B360" s="94"/>
-      <c r="C360" s="96"/>
+      <c r="A360" s="107"/>
+      <c r="B360" s="107"/>
+      <c r="C360" s="109"/>
       <c r="D360" s="53" t="s">
         <v>24</v>
       </c>
@@ -10200,9 +10200,9 @@
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="94"/>
-      <c r="B361" s="94"/>
-      <c r="C361" s="96"/>
+      <c r="A361" s="107"/>
+      <c r="B361" s="107"/>
+      <c r="C361" s="109"/>
       <c r="D361" s="53" t="s">
         <v>25</v>
       </c>
@@ -10211,9 +10211,9 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="94"/>
-      <c r="B362" s="94"/>
-      <c r="C362" s="96"/>
+      <c r="A362" s="107"/>
+      <c r="B362" s="107"/>
+      <c r="C362" s="109"/>
       <c r="D362" s="53" t="s">
         <v>26</v>
       </c>
@@ -10222,9 +10222,9 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="94"/>
-      <c r="B363" s="94"/>
-      <c r="C363" s="96"/>
+      <c r="A363" s="107"/>
+      <c r="B363" s="107"/>
+      <c r="C363" s="109"/>
       <c r="D363" s="53" t="s">
         <v>27</v>
       </c>
@@ -10233,9 +10233,9 @@
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="94"/>
-      <c r="B364" s="94"/>
-      <c r="C364" s="96"/>
+      <c r="A364" s="107"/>
+      <c r="B364" s="107"/>
+      <c r="C364" s="109"/>
       <c r="D364" s="53" t="s">
         <v>28</v>
       </c>
@@ -10244,9 +10244,9 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="94"/>
-      <c r="B365" s="94"/>
-      <c r="C365" s="96"/>
+      <c r="A365" s="107"/>
+      <c r="B365" s="107"/>
+      <c r="C365" s="109"/>
       <c r="D365" s="53" t="s">
         <v>29</v>
       </c>
@@ -10255,9 +10255,9 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="94"/>
-      <c r="B366" s="94"/>
-      <c r="C366" s="96"/>
+      <c r="A366" s="107"/>
+      <c r="B366" s="107"/>
+      <c r="C366" s="109"/>
       <c r="D366" s="53" t="s">
         <v>30</v>
       </c>
@@ -10266,9 +10266,9 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="94"/>
-      <c r="B367" s="94"/>
-      <c r="C367" s="96"/>
+      <c r="A367" s="107"/>
+      <c r="B367" s="107"/>
+      <c r="C367" s="109"/>
       <c r="D367" s="53" t="s">
         <v>31</v>
       </c>
@@ -10277,9 +10277,9 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="94"/>
-      <c r="B368" s="94"/>
-      <c r="C368" s="96"/>
+      <c r="A368" s="107"/>
+      <c r="B368" s="107"/>
+      <c r="C368" s="109"/>
       <c r="D368" s="53" t="s">
         <v>32</v>
       </c>
@@ -10288,9 +10288,9 @@
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="94"/>
-      <c r="B369" s="94"/>
-      <c r="C369" s="96"/>
+      <c r="A369" s="107"/>
+      <c r="B369" s="107"/>
+      <c r="C369" s="109"/>
       <c r="D369" s="53" t="s">
         <v>33</v>
       </c>
@@ -10299,9 +10299,9 @@
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="94"/>
-      <c r="B370" s="94"/>
-      <c r="C370" s="96"/>
+      <c r="A370" s="107"/>
+      <c r="B370" s="107"/>
+      <c r="C370" s="109"/>
       <c r="D370" s="53" t="s">
         <v>34</v>
       </c>
@@ -10310,9 +10310,9 @@
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="94"/>
-      <c r="B371" s="94"/>
-      <c r="C371" s="96"/>
+      <c r="A371" s="107"/>
+      <c r="B371" s="107"/>
+      <c r="C371" s="109"/>
       <c r="D371" s="53" t="s">
         <v>35</v>
       </c>
@@ -10321,9 +10321,9 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="94"/>
-      <c r="B372" s="94"/>
-      <c r="C372" s="96"/>
+      <c r="A372" s="107"/>
+      <c r="B372" s="107"/>
+      <c r="C372" s="109"/>
       <c r="D372" s="53" t="s">
         <v>36</v>
       </c>
@@ -10332,9 +10332,9 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="94"/>
-      <c r="B373" s="94"/>
-      <c r="C373" s="96"/>
+      <c r="A373" s="107"/>
+      <c r="B373" s="107"/>
+      <c r="C373" s="109"/>
       <c r="D373" s="53" t="s">
         <v>37</v>
       </c>
@@ -10343,9 +10343,9 @@
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="94"/>
-      <c r="B374" s="94"/>
-      <c r="C374" s="96"/>
+      <c r="A374" s="107"/>
+      <c r="B374" s="107"/>
+      <c r="C374" s="109"/>
       <c r="D374" s="53" t="s">
         <v>38</v>
       </c>
@@ -10354,9 +10354,9 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="94"/>
-      <c r="B375" s="94"/>
-      <c r="C375" s="96"/>
+      <c r="A375" s="107"/>
+      <c r="B375" s="107"/>
+      <c r="C375" s="109"/>
       <c r="D375" s="53" t="s">
         <v>96</v>
       </c>
@@ -10365,9 +10365,9 @@
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="94"/>
-      <c r="B376" s="94"/>
-      <c r="C376" s="96"/>
+      <c r="A376" s="107"/>
+      <c r="B376" s="107"/>
+      <c r="C376" s="109"/>
       <c r="D376" s="53" t="s">
         <v>97</v>
       </c>
@@ -10376,9 +10376,9 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" s="94"/>
-      <c r="B377" s="94"/>
-      <c r="C377" s="96"/>
+      <c r="A377" s="107"/>
+      <c r="B377" s="107"/>
+      <c r="C377" s="109"/>
       <c r="D377" s="53" t="s">
         <v>42</v>
       </c>
@@ -10387,9 +10387,9 @@
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="94"/>
-      <c r="B378" s="94"/>
-      <c r="C378" s="96"/>
+      <c r="A378" s="107"/>
+      <c r="B378" s="107"/>
+      <c r="C378" s="109"/>
       <c r="D378" s="53" t="s">
         <v>43</v>
       </c>
@@ -10398,9 +10398,9 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="94"/>
-      <c r="B379" s="94"/>
-      <c r="C379" s="96"/>
+      <c r="A379" s="107"/>
+      <c r="B379" s="107"/>
+      <c r="C379" s="109"/>
       <c r="D379" s="53" t="s">
         <v>44</v>
       </c>
@@ -10409,9 +10409,9 @@
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="94"/>
-      <c r="B380" s="94"/>
-      <c r="C380" s="96"/>
+      <c r="A380" s="107"/>
+      <c r="B380" s="107"/>
+      <c r="C380" s="109"/>
       <c r="D380" s="53" t="s">
         <v>45</v>
       </c>
@@ -10420,9 +10420,9 @@
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="94"/>
-      <c r="B381" s="94"/>
-      <c r="C381" s="96"/>
+      <c r="A381" s="107"/>
+      <c r="B381" s="107"/>
+      <c r="C381" s="109"/>
       <c r="D381" s="53" t="s">
         <v>98</v>
       </c>
@@ -10431,18 +10431,18 @@
       </c>
     </row>
     <row r="382" spans="1:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A382" s="94"/>
-      <c r="B382" s="94"/>
-      <c r="C382" s="96"/>
-      <c r="D382" s="91" t="s">
+      <c r="A382" s="107"/>
+      <c r="B382" s="107"/>
+      <c r="C382" s="109"/>
+      <c r="D382" s="92" t="s">
         <v>203</v>
       </c>
-      <c r="E382" s="92"/>
+      <c r="E382" s="93"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="94"/>
-      <c r="B383" s="94"/>
-      <c r="C383" s="96"/>
+      <c r="A383" s="107"/>
+      <c r="B383" s="107"/>
+      <c r="C383" s="109"/>
       <c r="D383" s="53" t="s">
         <v>19</v>
       </c>
@@ -10451,9 +10451,9 @@
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="94"/>
-      <c r="B384" s="94"/>
-      <c r="C384" s="96"/>
+      <c r="A384" s="107"/>
+      <c r="B384" s="107"/>
+      <c r="C384" s="109"/>
       <c r="D384" s="53" t="s">
         <v>21</v>
       </c>
@@ -10462,9 +10462,9 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="94"/>
-      <c r="B385" s="94"/>
-      <c r="C385" s="96"/>
+      <c r="A385" s="107"/>
+      <c r="B385" s="107"/>
+      <c r="C385" s="109"/>
       <c r="D385" s="53" t="s">
         <v>22</v>
       </c>
@@ -10473,9 +10473,9 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="94"/>
-      <c r="B386" s="94"/>
-      <c r="C386" s="96"/>
+      <c r="A386" s="107"/>
+      <c r="B386" s="107"/>
+      <c r="C386" s="109"/>
       <c r="D386" s="53" t="s">
         <v>23</v>
       </c>
@@ -10484,9 +10484,9 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="94"/>
-      <c r="B387" s="94"/>
-      <c r="C387" s="96"/>
+      <c r="A387" s="107"/>
+      <c r="B387" s="107"/>
+      <c r="C387" s="109"/>
       <c r="D387" s="53" t="s">
         <v>81</v>
       </c>
@@ -10495,9 +10495,9 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="94"/>
-      <c r="B388" s="94"/>
-      <c r="C388" s="96"/>
+      <c r="A388" s="107"/>
+      <c r="B388" s="107"/>
+      <c r="C388" s="109"/>
       <c r="D388" s="53" t="s">
         <v>82</v>
       </c>
@@ -10506,9 +10506,9 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="94"/>
-      <c r="B389" s="94"/>
-      <c r="C389" s="96"/>
+      <c r="A389" s="107"/>
+      <c r="B389" s="107"/>
+      <c r="C389" s="109"/>
       <c r="D389" s="53" t="s">
         <v>83</v>
       </c>
@@ -10517,9 +10517,9 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="94"/>
-      <c r="B390" s="94"/>
-      <c r="C390" s="96"/>
+      <c r="A390" s="107"/>
+      <c r="B390" s="107"/>
+      <c r="C390" s="109"/>
       <c r="D390" s="53" t="s">
         <v>84</v>
       </c>
@@ -10528,9 +10528,9 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="94"/>
-      <c r="B391" s="94"/>
-      <c r="C391" s="96"/>
+      <c r="A391" s="107"/>
+      <c r="B391" s="107"/>
+      <c r="C391" s="109"/>
       <c r="D391" s="53" t="s">
         <v>85</v>
       </c>
@@ -10539,9 +10539,9 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="94"/>
-      <c r="B392" s="94"/>
-      <c r="C392" s="96"/>
+      <c r="A392" s="107"/>
+      <c r="B392" s="107"/>
+      <c r="C392" s="109"/>
       <c r="D392" s="53" t="s">
         <v>86</v>
       </c>
@@ -10550,9 +10550,9 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="94"/>
-      <c r="B393" s="94"/>
-      <c r="C393" s="96"/>
+      <c r="A393" s="107"/>
+      <c r="B393" s="107"/>
+      <c r="C393" s="109"/>
       <c r="D393" s="53" t="s">
         <v>87</v>
       </c>
@@ -10561,9 +10561,9 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="94"/>
-      <c r="B394" s="94"/>
-      <c r="C394" s="96"/>
+      <c r="A394" s="107"/>
+      <c r="B394" s="107"/>
+      <c r="C394" s="109"/>
       <c r="D394" s="53" t="s">
         <v>88</v>
       </c>
@@ -10572,9 +10572,9 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" s="94"/>
-      <c r="B395" s="94"/>
-      <c r="C395" s="96"/>
+      <c r="A395" s="107"/>
+      <c r="B395" s="107"/>
+      <c r="C395" s="109"/>
       <c r="D395" s="53" t="s">
         <v>89</v>
       </c>
@@ -10583,9 +10583,9 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="94"/>
-      <c r="B396" s="94"/>
-      <c r="C396" s="96"/>
+      <c r="A396" s="107"/>
+      <c r="B396" s="107"/>
+      <c r="C396" s="109"/>
       <c r="D396" s="53" t="s">
         <v>90</v>
       </c>
@@ -10594,9 +10594,9 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="94"/>
-      <c r="B397" s="94"/>
-      <c r="C397" s="96"/>
+      <c r="A397" s="107"/>
+      <c r="B397" s="107"/>
+      <c r="C397" s="109"/>
       <c r="D397" s="53" t="s">
         <v>91</v>
       </c>
@@ -10605,9 +10605,9 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" s="94"/>
-      <c r="B398" s="94"/>
-      <c r="C398" s="96"/>
+      <c r="A398" s="107"/>
+      <c r="B398" s="107"/>
+      <c r="C398" s="109"/>
       <c r="D398" s="53" t="s">
         <v>92</v>
       </c>
@@ -10616,9 +10616,9 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" s="94"/>
-      <c r="B399" s="94"/>
-      <c r="C399" s="96"/>
+      <c r="A399" s="107"/>
+      <c r="B399" s="107"/>
+      <c r="C399" s="109"/>
       <c r="D399" s="53" t="s">
         <v>93</v>
       </c>
@@ -10627,9 +10627,9 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="94"/>
-      <c r="B400" s="94"/>
-      <c r="C400" s="96"/>
+      <c r="A400" s="107"/>
+      <c r="B400" s="107"/>
+      <c r="C400" s="109"/>
       <c r="D400" s="53" t="s">
         <v>94</v>
       </c>
@@ -10638,9 +10638,9 @@
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" s="94"/>
-      <c r="B401" s="94"/>
-      <c r="C401" s="96"/>
+      <c r="A401" s="107"/>
+      <c r="B401" s="107"/>
+      <c r="C401" s="109"/>
       <c r="D401" s="53" t="s">
         <v>95</v>
       </c>
@@ -10649,9 +10649,9 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" s="94"/>
-      <c r="B402" s="94"/>
-      <c r="C402" s="96"/>
+      <c r="A402" s="107"/>
+      <c r="B402" s="107"/>
+      <c r="C402" s="109"/>
       <c r="D402" s="53" t="s">
         <v>101</v>
       </c>
@@ -10660,9 +10660,9 @@
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" s="94"/>
-      <c r="B403" s="94"/>
-      <c r="C403" s="96"/>
+      <c r="A403" s="107"/>
+      <c r="B403" s="107"/>
+      <c r="C403" s="109"/>
       <c r="D403" s="53" t="s">
         <v>102</v>
       </c>
@@ -10671,9 +10671,9 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="94"/>
-      <c r="B404" s="94"/>
-      <c r="C404" s="96"/>
+      <c r="A404" s="107"/>
+      <c r="B404" s="107"/>
+      <c r="C404" s="109"/>
       <c r="D404" s="53" t="s">
         <v>104</v>
       </c>
@@ -10682,9 +10682,9 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="94"/>
-      <c r="B405" s="94"/>
-      <c r="C405" s="96"/>
+      <c r="A405" s="107"/>
+      <c r="B405" s="107"/>
+      <c r="C405" s="109"/>
       <c r="D405" s="53" t="s">
         <v>105</v>
       </c>
@@ -10693,9 +10693,9 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="94"/>
-      <c r="B406" s="94"/>
-      <c r="C406" s="96"/>
+      <c r="A406" s="107"/>
+      <c r="B406" s="107"/>
+      <c r="C406" s="109"/>
       <c r="D406" s="53" t="s">
         <v>106</v>
       </c>
@@ -10704,9 +10704,9 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="94"/>
-      <c r="B407" s="94"/>
-      <c r="C407" s="96"/>
+      <c r="A407" s="107"/>
+      <c r="B407" s="107"/>
+      <c r="C407" s="109"/>
       <c r="D407" s="53" t="s">
         <v>107</v>
       </c>
@@ -10715,9 +10715,9 @@
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" s="94"/>
-      <c r="B408" s="94"/>
-      <c r="C408" s="96"/>
+      <c r="A408" s="107"/>
+      <c r="B408" s="107"/>
+      <c r="C408" s="109"/>
       <c r="D408" s="53" t="s">
         <v>108</v>
       </c>
@@ -10726,9 +10726,9 @@
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="94"/>
-      <c r="B409" s="94"/>
-      <c r="C409" s="96"/>
+      <c r="A409" s="107"/>
+      <c r="B409" s="107"/>
+      <c r="C409" s="109"/>
       <c r="D409" s="53" t="s">
         <v>109</v>
       </c>
@@ -10737,9 +10737,9 @@
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="94"/>
-      <c r="B410" s="94"/>
-      <c r="C410" s="96"/>
+      <c r="A410" s="107"/>
+      <c r="B410" s="107"/>
+      <c r="C410" s="109"/>
       <c r="D410" s="53" t="s">
         <v>24</v>
       </c>
@@ -10748,9 +10748,9 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="94"/>
-      <c r="B411" s="94"/>
-      <c r="C411" s="96"/>
+      <c r="A411" s="107"/>
+      <c r="B411" s="107"/>
+      <c r="C411" s="109"/>
       <c r="D411" s="53" t="s">
         <v>25</v>
       </c>
@@ -10759,9 +10759,9 @@
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="94"/>
-      <c r="B412" s="94"/>
-      <c r="C412" s="96"/>
+      <c r="A412" s="107"/>
+      <c r="B412" s="107"/>
+      <c r="C412" s="109"/>
       <c r="D412" s="53" t="s">
         <v>26</v>
       </c>
@@ -10770,9 +10770,9 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="94"/>
-      <c r="B413" s="94"/>
-      <c r="C413" s="96"/>
+      <c r="A413" s="107"/>
+      <c r="B413" s="107"/>
+      <c r="C413" s="109"/>
       <c r="D413" s="53" t="s">
         <v>27</v>
       </c>
@@ -10781,9 +10781,9 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414" s="94"/>
-      <c r="B414" s="94"/>
-      <c r="C414" s="96"/>
+      <c r="A414" s="107"/>
+      <c r="B414" s="107"/>
+      <c r="C414" s="109"/>
       <c r="D414" s="53" t="s">
         <v>28</v>
       </c>
@@ -10792,9 +10792,9 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" s="94"/>
-      <c r="B415" s="94"/>
-      <c r="C415" s="96"/>
+      <c r="A415" s="107"/>
+      <c r="B415" s="107"/>
+      <c r="C415" s="109"/>
       <c r="D415" s="53" t="s">
         <v>29</v>
       </c>
@@ -10803,9 +10803,9 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" s="94"/>
-      <c r="B416" s="94"/>
-      <c r="C416" s="96"/>
+      <c r="A416" s="107"/>
+      <c r="B416" s="107"/>
+      <c r="C416" s="109"/>
       <c r="D416" s="53" t="s">
         <v>30</v>
       </c>
@@ -10814,9 +10814,9 @@
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="94"/>
-      <c r="B417" s="94"/>
-      <c r="C417" s="96"/>
+      <c r="A417" s="107"/>
+      <c r="B417" s="107"/>
+      <c r="C417" s="109"/>
       <c r="D417" s="53" t="s">
         <v>31</v>
       </c>
@@ -10825,9 +10825,9 @@
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="94"/>
-      <c r="B418" s="94"/>
-      <c r="C418" s="96"/>
+      <c r="A418" s="107"/>
+      <c r="B418" s="107"/>
+      <c r="C418" s="109"/>
       <c r="D418" s="53" t="s">
         <v>32</v>
       </c>
@@ -10836,9 +10836,9 @@
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="94"/>
-      <c r="B419" s="94"/>
-      <c r="C419" s="96"/>
+      <c r="A419" s="107"/>
+      <c r="B419" s="107"/>
+      <c r="C419" s="109"/>
       <c r="D419" s="53" t="s">
         <v>33</v>
       </c>
@@ -10847,9 +10847,9 @@
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="94"/>
-      <c r="B420" s="94"/>
-      <c r="C420" s="96"/>
+      <c r="A420" s="107"/>
+      <c r="B420" s="107"/>
+      <c r="C420" s="109"/>
       <c r="D420" s="53" t="s">
         <v>34</v>
       </c>
@@ -10858,9 +10858,9 @@
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" s="94"/>
-      <c r="B421" s="94"/>
-      <c r="C421" s="96"/>
+      <c r="A421" s="107"/>
+      <c r="B421" s="107"/>
+      <c r="C421" s="109"/>
       <c r="D421" s="53" t="s">
         <v>35</v>
       </c>
@@ -10869,9 +10869,9 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="94"/>
-      <c r="B422" s="94"/>
-      <c r="C422" s="96"/>
+      <c r="A422" s="107"/>
+      <c r="B422" s="107"/>
+      <c r="C422" s="109"/>
       <c r="D422" s="53" t="s">
         <v>36</v>
       </c>
@@ -10880,9 +10880,9 @@
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" s="94"/>
-      <c r="B423" s="94"/>
-      <c r="C423" s="96"/>
+      <c r="A423" s="107"/>
+      <c r="B423" s="107"/>
+      <c r="C423" s="109"/>
       <c r="D423" s="53" t="s">
         <v>37</v>
       </c>
@@ -10891,9 +10891,9 @@
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="94"/>
-      <c r="B424" s="94"/>
-      <c r="C424" s="96"/>
+      <c r="A424" s="107"/>
+      <c r="B424" s="107"/>
+      <c r="C424" s="109"/>
       <c r="D424" s="53" t="s">
         <v>38</v>
       </c>
@@ -10902,9 +10902,9 @@
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="94"/>
-      <c r="B425" s="94"/>
-      <c r="C425" s="96"/>
+      <c r="A425" s="107"/>
+      <c r="B425" s="107"/>
+      <c r="C425" s="109"/>
       <c r="D425" s="53" t="s">
         <v>96</v>
       </c>
@@ -10913,9 +10913,9 @@
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="94"/>
-      <c r="B426" s="94"/>
-      <c r="C426" s="96"/>
+      <c r="A426" s="107"/>
+      <c r="B426" s="107"/>
+      <c r="C426" s="109"/>
       <c r="D426" s="53" t="s">
         <v>97</v>
       </c>
@@ -10924,9 +10924,9 @@
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="94"/>
-      <c r="B427" s="94"/>
-      <c r="C427" s="96"/>
+      <c r="A427" s="107"/>
+      <c r="B427" s="107"/>
+      <c r="C427" s="109"/>
       <c r="D427" s="53" t="s">
         <v>43</v>
       </c>
@@ -10935,9 +10935,9 @@
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="94"/>
-      <c r="B428" s="94"/>
-      <c r="C428" s="96"/>
+      <c r="A428" s="107"/>
+      <c r="B428" s="107"/>
+      <c r="C428" s="109"/>
       <c r="D428" s="53" t="s">
         <v>44</v>
       </c>
@@ -10946,9 +10946,9 @@
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="94"/>
-      <c r="B429" s="94"/>
-      <c r="C429" s="96"/>
+      <c r="A429" s="107"/>
+      <c r="B429" s="107"/>
+      <c r="C429" s="109"/>
       <c r="D429" s="53" t="s">
         <v>45</v>
       </c>
@@ -10957,9 +10957,9 @@
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="94"/>
-      <c r="B430" s="94"/>
-      <c r="C430" s="96"/>
+      <c r="A430" s="107"/>
+      <c r="B430" s="107"/>
+      <c r="C430" s="109"/>
       <c r="D430" s="53" t="s">
         <v>98</v>
       </c>
@@ -10968,9 +10968,9 @@
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="94"/>
-      <c r="B431" s="94"/>
-      <c r="C431" s="96"/>
+      <c r="A431" s="107"/>
+      <c r="B431" s="107"/>
+      <c r="C431" s="109"/>
       <c r="D431" s="53" t="s">
         <v>46</v>
       </c>
@@ -10979,9 +10979,9 @@
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="94"/>
-      <c r="B432" s="94"/>
-      <c r="C432" s="96"/>
+      <c r="A432" s="107"/>
+      <c r="B432" s="107"/>
+      <c r="C432" s="109"/>
       <c r="D432" s="53" t="s">
         <v>47</v>
       </c>
@@ -10991,6 +10991,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="D333:E333"/>
+    <mergeCell ref="D382:E382"/>
+    <mergeCell ref="A7:B432"/>
+    <mergeCell ref="C5:C432"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="D131:E131"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="B1:D1"/>
@@ -11000,14 +11008,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="D333:E333"/>
-    <mergeCell ref="D382:E382"/>
-    <mergeCell ref="A7:B432"/>
-    <mergeCell ref="C5:C432"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="D131:E131"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11020,10 +11020,10 @@
   <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F88" sqref="F88"/>
       <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -17112,13 +17112,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Owner xmlns="17f6712d-36fa-4544-bbf8-c776741600d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17358,21 +17357,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Owner xmlns="17f6712d-36fa-4544-bbf8-c776741600d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67237768-050B-4781-A72B-413F0668346A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD796952-30A1-454D-9049-EC32568D696A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="17f6712d-36fa-4544-bbf8-c776741600d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17398,9 +17395,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD796952-30A1-454D-9049-EC32568D696A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67237768-050B-4781-A72B-413F0668346A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="17f6712d-36fa-4544-bbf8-c776741600d7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>